--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DE714D-5E15-F546-B3DB-8746CE617D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D1B6C-F439-2E4C-BE9C-741FBD941546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2538,40 +2538,40 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>294.18</v>
+    <v>319.04000000000002</v>
     <v>213.43100000000001</v>
-    <v>0.93020000000000003</v>
-    <v>-0.35</v>
-    <v>-1.2230000000000001E-3</v>
-    <v>-0.46</v>
-    <v>-1.6100000000000001E-3</v>
+    <v>0.92910000000000004</v>
+    <v>-0.18</v>
+    <v>-5.6510000000000002E-4</v>
+    <v>-0.42</v>
+    <v>-1.3189999999999999E-3</v>
     <v>USD</v>
-    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of public, private, and hybrid server products and cloud services that can power modern businesses and developers. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services that put customers at the centre of the experience with its technology. This segment includes Windows, devices, gaming, and search and news advertising.</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, Dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of its public, private, and hybrid server products and cloud services. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services, such as Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>286.27</v>
+    <v>318.75</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999988888281</v>
+    <v>45065.952713691404</v>
     <v>4</v>
-    <v>283.06079999999997</v>
-    <v>2127141000000</v>
+    <v>316.37</v>
+    <v>2367013249920</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>285.01</v>
-    <v>31.8093</v>
-    <v>286.11</v>
-    <v>285.76</v>
-    <v>285.3</v>
-    <v>7443804000</v>
+    <v>316.74</v>
+    <v>34.524799999999999</v>
+    <v>318.52</v>
+    <v>318.33999999999997</v>
+    <v>317.92</v>
+    <v>7435488000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>21676387</v>
-    <v>29744935</v>
+    <v>27534723</v>
+    <v>27463928</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2756,9 +2756,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3195,10 +3195,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN94" sqref="AN94"/>
+      <selection pane="bottomRight" activeCell="AP98" sqref="AP98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3589,7 +3589,8 @@
         <v>198270000000</v>
       </c>
       <c r="AM3" s="20">
-        <v>209100000000</v>
+        <f>4*52900000000</f>
+        <v>211600000000</v>
       </c>
       <c r="AN3" s="20">
         <v>233400000000</v>
@@ -3767,11 +3768,11 @@
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="7"/>
-        <v>5.4622484490845835E-2</v>
+        <v>6.723155293286931E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="7"/>
-        <v>0.11621233859397417</v>
+        <v>0.10302457466918713</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="7"/>
@@ -5369,15 +5370,15 @@
       </c>
       <c r="AS16" s="44">
         <f>AT101/AL3</f>
-        <v>10.728506581933727</v>
+        <v>11.938332828567106</v>
       </c>
       <c r="AT16" s="44">
         <f>AT101/AL28</f>
-        <v>29.243875278396438</v>
+        <v>32.541632295636397</v>
       </c>
       <c r="AU16" s="45">
         <f>AT101/AL106</f>
-        <v>32.650401387588452</v>
+        <v>36.332303641191729</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14809,7 +14810,7 @@
       </c>
       <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.93020000000000003</v>
+        <v>0.92910000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15054,7 +15055,7 @@
       </c>
       <c r="AT97" s="53">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0995110000000009E-2</v>
+        <v>8.094775500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15420,7 +15421,7 @@
       </c>
       <c r="AT100" s="51">
         <f>AT99/AT103</f>
-        <v>2.7997483105321623E-2</v>
+        <v>2.5231817582243975E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15543,7 +15544,7 @@
       </c>
       <c r="AT101" s="34" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2127141000000</v>
+        <v>2367013249920</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15666,7 +15667,7 @@
       </c>
       <c r="AT102" s="51">
         <f>AT101/AT103</f>
-        <v>0.97200251689467843</v>
+        <v>0.97476818241775598</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15789,7 +15790,7 @@
       </c>
       <c r="AT103" s="55">
         <f>AT99+AT101</f>
-        <v>2188411000000</v>
+        <v>2428283249920</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16072,7 +16073,7 @@
       </c>
       <c r="AT105" s="22">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.9546524936188773E-2</v>
+        <v>7.964345985760482E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16192,23 +16193,23 @@
       </c>
       <c r="AM106" s="23">
         <f>AL106*(1+$AT$106)</f>
-        <v>71730695933.998474</v>
+        <v>71723155647.597168</v>
       </c>
       <c r="AN106" s="23">
         <f t="shared" ref="AN106:AQ106" si="64">AM106*(1+$AT$106)</f>
-        <v>78977309539.298309</v>
+        <v>78960706320.119263</v>
       </c>
       <c r="AO106" s="23">
         <f t="shared" si="64"/>
-        <v>86956014309.485718</v>
+        <v>86928594904.63588</v>
       </c>
       <c r="AP106" s="23">
         <f t="shared" si="64"/>
-        <v>95740769959.111282</v>
+        <v>95700519464.18396</v>
       </c>
       <c r="AQ106" s="23">
         <f t="shared" si="64"/>
-        <v>105413008003.55965</v>
+        <v>105357614899.46996</v>
       </c>
       <c r="AR106" s="24" t="s">
         <v>142</v>
@@ -16218,7 +16219,7 @@
       </c>
       <c r="AT106" s="26">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>0.10102527949774323</v>
+        <v>0.10090954040119052</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16266,7 +16267,7 @@
       <c r="AP107" s="24"/>
       <c r="AQ107" s="27">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>1980847236923.8726</v>
+        <v>1976294245521.2659</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>144</v>
@@ -16281,23 +16282,23 @@
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="AM108" s="27">
         <f t="shared" ref="AM108:AO108" si="65">AM107+AM106</f>
-        <v>71730695933.998474</v>
+        <v>71723155647.597168</v>
       </c>
       <c r="AN108" s="27">
         <f t="shared" si="65"/>
-        <v>78977309539.298309</v>
+        <v>78960706320.119263</v>
       </c>
       <c r="AO108" s="27">
         <f t="shared" si="65"/>
-        <v>86956014309.485718</v>
+        <v>86928594904.63588</v>
       </c>
       <c r="AP108" s="27">
         <f>AP107+AP106</f>
-        <v>95740769959.111282</v>
+        <v>95700519464.18396</v>
       </c>
       <c r="AQ108" s="27">
         <f>AQ107+AQ106</f>
-        <v>2086260244927.4321</v>
+        <v>2081651860420.7358</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>139</v>
@@ -16307,7 +16308,7 @@
       </c>
       <c r="AT108" s="32">
         <f>AT105</f>
-        <v>7.9546524936188773E-2</v>
+        <v>7.964345985760482E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16322,7 +16323,7 @@
       </c>
       <c r="AN110" s="34">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1696676913825.4783</v>
+        <v>1692762004664.8171</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16349,7 +16350,7 @@
       </c>
       <c r="AN113" s="34">
         <f>AN110+AN111-AN112</f>
-        <v>1740155913825.4783</v>
+        <v>1736241004664.8171</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16367,7 +16368,7 @@
       </c>
       <c r="AN115" s="58">
         <f>AN113/AN114</f>
-        <v>239.86667539621055</v>
+        <v>239.32703625388703</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16376,7 +16377,7 @@
       </c>
       <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>285.3</v>
+        <v>317.92</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16385,7 +16386,7 @@
       </c>
       <c r="AN117" s="37">
         <f>(AN115/AN116)-1</f>
-        <v>-0.15924754505359084</v>
+        <v>-0.2472098758999528</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D1B6C-F439-2E4C-BE9C-741FBD941546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721C260-FDFF-654D-B7D4-B2535E797418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -551,17 +551,27 @@
   <si>
     <t>Net Cash</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -980,12 +990,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,6 +1031,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2538,13 +2550,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>319.04000000000002</v>
+    <v>333.4</v>
     <v>213.43100000000001</v>
-    <v>0.92910000000000004</v>
-    <v>-0.18</v>
-    <v>-5.6510000000000002E-4</v>
-    <v>-0.42</v>
-    <v>-1.3189999999999999E-3</v>
+    <v>0.9254</v>
+    <v>6.97</v>
+    <v>2.1385999999999999E-2</v>
+    <v>1.1599999999999999</v>
+    <v>3.4849999999999998E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, Dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of its public, private, and hybrid server products and cloud services. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services, such as Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -2552,26 +2564,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>318.75</v>
+    <v>333.4</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.952713691404</v>
+    <v>45072.999919235939</v>
     <v>4</v>
-    <v>316.37</v>
-    <v>2367013249920</v>
+    <v>323.88</v>
+    <v>2475199600320</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>316.74</v>
-    <v>34.524799999999999</v>
-    <v>318.52</v>
-    <v>318.33999999999997</v>
-    <v>317.92</v>
+    <v>324.02</v>
+    <v>35.326900000000002</v>
+    <v>325.92</v>
+    <v>332.89</v>
+    <v>334.05</v>
     <v>7435488000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>27534723</v>
-    <v>27463928</v>
+    <v>36630633</v>
+    <v>29214550</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2756,9 +2768,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3195,18 +3207,17 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP98" sqref="AP98"/>
+      <selection pane="bottomRight" activeCell="AN120" sqref="AN120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="38" width="15" customWidth="1"/>
-    <col min="39" max="43" width="19" customWidth="1"/>
-    <col min="44" max="45" width="21.1640625" customWidth="1"/>
+    <col min="39" max="45" width="21.1640625" customWidth="1"/>
     <col min="46" max="46" width="21.83203125" customWidth="1"/>
     <col min="47" max="47" width="20" customWidth="1"/>
   </cols>
@@ -3589,20 +3600,20 @@
         <v>198270000000</v>
       </c>
       <c r="AM3" s="20">
-        <f>4*52900000000</f>
-        <v>211600000000</v>
+        <f>211100000000</f>
+        <v>211100000000</v>
       </c>
       <c r="AN3" s="20">
-        <v>233400000000</v>
+        <v>235000000000</v>
       </c>
       <c r="AO3" s="20">
-        <v>262300000000</v>
+        <v>262800000000</v>
       </c>
       <c r="AP3" s="20">
-        <v>295300000000</v>
+        <v>292000000000</v>
       </c>
       <c r="AQ3" s="20">
-        <v>320300000000</v>
+        <v>323700000000</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>110</v>
@@ -3768,23 +3779,23 @@
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="7"/>
-        <v>6.723155293286931E-2</v>
+        <v>6.4709739244464659E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="7"/>
-        <v>0.10302457466918713</v>
+        <v>0.11321648507816207</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="7"/>
-        <v>0.12382176520994004</v>
+        <v>0.11829787234042555</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="7"/>
-        <v>0.12581014105985511</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="7"/>
-        <v>8.4659668134100974E-2</v>
+        <v>0.10856164383561651</v>
       </c>
       <c r="AR4" s="42">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -5368,17 +5379,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="44">
+      <c r="AS16" s="63">
         <f>AT101/AL3</f>
-        <v>11.938332828567106</v>
-      </c>
-      <c r="AT16" s="44">
+        <v>12.48398446724164</v>
+      </c>
+      <c r="AT16" s="63">
         <f>AT101/AL28</f>
-        <v>32.541632295636397</v>
-      </c>
-      <c r="AU16" s="45">
+        <v>34.028975230553492</v>
+      </c>
+      <c r="AU16" s="64">
         <f>AT101/AL106</f>
-        <v>36.332303641191729</v>
+        <v>37.992902428586781</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5615,6 +5626,15 @@
       <c r="AR18" s="40" t="s">
         <v>159</v>
       </c>
+      <c r="AS18" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT18" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU18" s="41" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -5731,9 +5751,21 @@
       <c r="AL19" s="10">
         <v>100239000000</v>
       </c>
-      <c r="AR19" s="46">
+      <c r="AR19" s="44">
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
+      </c>
+      <c r="AS19" s="63">
+        <f>AT101/AM3</f>
+        <v>11.725246803979157</v>
+      </c>
+      <c r="AT19" s="63">
+        <f>AT101/AM28</f>
+        <v>34.21903392990545</v>
+      </c>
+      <c r="AU19" s="64">
+        <f>AT101/AM106</f>
+        <v>34.439460572489487</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6815,6 +6847,21 @@
       <c r="AL28" s="11">
         <v>72738000000</v>
       </c>
+      <c r="AM28" s="65">
+        <v>72334000001</v>
+      </c>
+      <c r="AN28" s="65">
+        <v>80917000000</v>
+      </c>
+      <c r="AO28" s="65">
+        <v>90916000000</v>
+      </c>
+      <c r="AP28" s="65">
+        <v>105400000000</v>
+      </c>
+      <c r="AQ28" s="65">
+        <v>124100000000</v>
+      </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -6964,6 +7011,26 @@
       <c r="AL29" s="15">
         <f t="shared" ref="AL29" si="35">(AL28/AK28)-1</f>
         <v>0.1871521600757291</v>
+      </c>
+      <c r="AM29" s="16">
+        <f t="shared" ref="AM29" si="36">(AM28/AL28)-1</f>
+        <v>-5.5541807445901314E-3</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="37">(AN28/AM28)-1</f>
+        <v>0.11865789253852044</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="38">(AO28/AN28)-1</f>
+        <v>0.12357106664854101</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="39">(AP28/AO28)-1</f>
+        <v>0.15931189229618559</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" ref="AQ29" si="40">(AQ28/AP28)-1</f>
+        <v>0.17741935483870974</v>
       </c>
       <c r="AT29" s="15"/>
       <c r="AU29" s="15"/>
@@ -7083,6 +7150,21 @@
       <c r="AL30" s="2">
         <v>0.3669</v>
       </c>
+      <c r="AM30" s="66">
+        <v>1.3669</v>
+      </c>
+      <c r="AN30" s="66">
+        <v>2.3668999999999998</v>
+      </c>
+      <c r="AO30" s="66">
+        <v>3.3668999999999998</v>
+      </c>
+      <c r="AP30" s="66">
+        <v>4.3669000000000002</v>
+      </c>
+      <c r="AQ30" s="66">
+        <v>5.3669000000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -7558,143 +7640,143 @@
         <v>-2.0756156025277837E-2</v>
       </c>
       <c r="D35" s="19">
-        <f t="shared" ref="D35:Z35" si="36">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Z35" si="41">(D34-C34)/C34</f>
         <v>-0.13838664812239221</v>
       </c>
       <c r="E35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.10088781275221953</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0.16966904061583576</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>5.4604063611293052E-2</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>5.212610759502509E-2</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7.6684084168902697E-2</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.4134312696747113E-2</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.7868852459016394E-2</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.0733652312599681E-2</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.1722560975609755E-2</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.2379709063782172E-2</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>9.8504195549069685E-3</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>6.8641618497109827E-3</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-3.7674919268030141E-3</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-2.0169277867819198E-2</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1.1027384671935306E-3</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1.1015237745548008E-3</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-3.4384742343664038E-2</v>
       </c>
       <c r="W35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-6.1247744753584653E-2</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-4.2079708678939912E-2</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-5.0052798310454068E-2</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>-7.6700755891507336E-3</v>
       </c>
       <c r="AA35" s="19">
-        <f t="shared" ref="AA35" si="37">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="42">(AA34-Z34)/Z34</f>
         <v>-3.7414584966954184E-2</v>
       </c>
       <c r="AB35" s="19">
-        <f t="shared" ref="AB35" si="38">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="43">(AB34-AA34)/AA34</f>
         <v>-1.0124519958105435E-2</v>
       </c>
       <c r="AC35" s="19">
-        <f t="shared" ref="AC35" si="39">(AC34-AB34)/AB34</f>
+        <f t="shared" ref="AC35" si="44">(AC34-AB34)/AB34</f>
         <v>-4.2323066071008704E-3</v>
       </c>
       <c r="AD35" s="19">
-        <f t="shared" ref="AD35" si="40">(AD34-AC34)/AC34</f>
+        <f t="shared" ref="AD35" si="45">(AD34-AC34)/AC34</f>
         <v>-8.3825265643447458E-3</v>
       </c>
       <c r="AE35" s="19">
-        <f t="shared" ref="AE35" si="41">(AE34-AD34)/AD34</f>
+        <f t="shared" ref="AE35" si="46">(AE34-AD34)/AD34</f>
         <v>-1.7263959995237527E-2</v>
       </c>
       <c r="AF35" s="19">
-        <f t="shared" ref="AF35" si="42">(AF34-AE34)/AE34</f>
+        <f t="shared" ref="AF35" si="47">(AF34-AE34)/AE34</f>
         <v>-2.9197964623212988E-2</v>
       </c>
       <c r="AG35" s="19">
-        <f t="shared" ref="AG35" si="43">(AG34-AF34)/AF34</f>
+        <f t="shared" ref="AG35" si="48">(AG34-AF34)/AF34</f>
         <v>-2.2588294022213903E-2</v>
       </c>
       <c r="AH35" s="19">
-        <f t="shared" ref="AH35" si="44">(AH34-AG34)/AG34</f>
+        <f t="shared" ref="AH35" si="49">(AH34-AG34)/AG34</f>
         <v>-4.8518896833503579E-3</v>
       </c>
       <c r="AI35" s="19">
-        <f t="shared" ref="AI35" si="45">(AI34-AH34)/AH34</f>
+        <f t="shared" ref="AI35" si="50">(AI34-AH34)/AH34</f>
         <v>-5.2604567616114963E-3</v>
       </c>
       <c r="AJ35" s="19">
-        <f t="shared" ref="AJ35" si="46">(AJ34-AI34)/AI34</f>
+        <f t="shared" ref="AJ35" si="51">(AJ34-AI34)/AI34</f>
         <v>-9.0287630594608533E-3</v>
       </c>
       <c r="AK35" s="19">
-        <f t="shared" ref="AK35" si="47">(AK34-AJ34)/AJ34</f>
+        <f t="shared" ref="AK35" si="52">(AK34-AJ34)/AJ34</f>
         <v>-9.7618117922686452E-3</v>
       </c>
       <c r="AL35" s="19">
-        <f t="shared" ref="AL35" si="48">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="53">(AL34-AK34)/AK34</f>
         <v>-8.9379600420609884E-3</v>
       </c>
     </row>
@@ -12807,151 +12889,151 @@
         <v>107</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="49">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="54">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>2.4478649453823238E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>2.9228057566267947E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.0263747519364958E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.0968074003116824E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.043826214342878E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.0905984662616091E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>2.8169014084507043E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>2.7505877324214577E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.1270511017346458E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.6309060589216229E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.5701341065603479E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.6966696598142126E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.6982134741111075E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.6397601256484696E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>3.7837292580824126E-2</v>
       </c>
     </row>
@@ -13302,10 +13384,10 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="61" t="s">
+      <c r="AS83" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="AT83" s="62"/>
+      <c r="AT83" s="60"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13422,10 +13504,10 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="63" t="s">
+      <c r="AS84" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="AT84" s="64"/>
+      <c r="AT84" s="62"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13542,10 +13624,10 @@
       <c r="AL85" s="1">
         <v>5805000000</v>
       </c>
-      <c r="AS85" s="48" t="s">
+      <c r="AS85" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="AT85" s="49">
+      <c r="AT85" s="47">
         <f>AL17</f>
         <v>2063000000</v>
       </c>
@@ -13665,10 +13747,10 @@
       <c r="AL86" s="1">
         <v>-409000000</v>
       </c>
-      <c r="AS86" s="48" t="s">
+      <c r="AS86" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="AT86" s="49">
+      <c r="AT86" s="47">
         <f>AL56</f>
         <v>2749000000</v>
       </c>
@@ -13788,10 +13870,10 @@
       <c r="AL87" s="10">
         <v>89035000000</v>
       </c>
-      <c r="AS87" s="48" t="s">
+      <c r="AS87" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AT87" s="49">
+      <c r="AT87" s="47">
         <f>AL61</f>
         <v>58521000000</v>
       </c>
@@ -13911,10 +13993,10 @@
       <c r="AL88" s="1">
         <v>-23886000000</v>
       </c>
-      <c r="AS88" s="50" t="s">
+      <c r="AS88" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AT88" s="51">
+      <c r="AT88" s="49">
         <f>AT85/(AT86+AT87)</f>
         <v>3.3670638158968501E-2</v>
       </c>
@@ -13924,157 +14006,157 @@
         <v>108</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="50">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AL89" si="55">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.11126322339763535</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.13359810714889303</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.14343061733752849</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.11476420052923478</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>6.2883026911803891E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5.9797805979780599E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>8.3375442142496203E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5.6971514242878558E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4.393379116041557E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4.5291355979011322E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2.9523471919785285E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.8290642969158392E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4.3603731815306766E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2.7146130794993832E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2.7681983409451022E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.0107234966743585E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.5635246827153244E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>4.4286217284143815E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5.2664680569347901E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5.3373718705614595E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.1640099865565582E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.3670274366269674E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>3.1265683707933749E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>5.4682783336972858E-2</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>6.3167229048863904E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>6.3517845693524255E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>9.7784810126582272E-2</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>9.0372429127292944E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.10540050743022834</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.11065375110256431</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.10796769569625564</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.12268573604302509</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.12047208352246935</v>
       </c>
-      <c r="AS89" s="48" t="s">
+      <c r="AS89" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="AT89" s="49">
+      <c r="AT89" s="47">
         <f>AL27</f>
         <v>10978000000</v>
       </c>
@@ -14194,10 +14276,10 @@
       <c r="AL90" s="1">
         <v>-22038000000</v>
       </c>
-      <c r="AS90" s="48" t="s">
+      <c r="AS90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="49">
+      <c r="AT90" s="47">
         <f>AL25</f>
         <v>83716000000</v>
       </c>
@@ -14317,10 +14399,10 @@
       <c r="AL91" s="1">
         <v>-26456000000</v>
       </c>
-      <c r="AS91" s="50" t="s">
+      <c r="AS91" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AT91" s="51">
+      <c r="AT91" s="49">
         <f>AT89/AT90</f>
         <v>0.13113383343685794</v>
       </c>
@@ -14440,10 +14522,10 @@
       <c r="AL92" s="1">
         <v>44894000000</v>
       </c>
-      <c r="AS92" s="52" t="s">
+      <c r="AS92" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AT92" s="53">
+      <c r="AT92" s="51">
         <f>AT88*(1-AT91)</f>
         <v>2.9255278302917614E-2</v>
       </c>
@@ -14563,10 +14645,10 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="63" t="s">
+      <c r="AS93" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="AT93" s="64"/>
+      <c r="AT93" s="62"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14683,10 +14765,10 @@
       <c r="AL94" s="10">
         <v>-30311000000</v>
       </c>
-      <c r="AS94" s="48" t="s">
+      <c r="AS94" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="AT94" s="54">
+      <c r="AT94" s="52">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14805,12 +14887,12 @@
       <c r="AL95" s="1">
         <v>-9023000000</v>
       </c>
-      <c r="AS95" s="48" t="s">
+      <c r="AS95" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AT95" s="56" cm="1">
+      <c r="AT95" s="54" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.92910000000000004</v>
+        <v>0.9254</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14928,10 +15010,10 @@
       <c r="AL96" s="1">
         <v>1841000000</v>
       </c>
-      <c r="AS96" s="48" t="s">
+      <c r="AS96" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AT96" s="54">
+      <c r="AT96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15050,12 +15132,12 @@
       <c r="AL97" s="1">
         <v>-32696000000</v>
       </c>
-      <c r="AS97" s="52" t="s">
+      <c r="AS97" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AT97" s="53">
+      <c r="AT97" s="51">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.094775500000001E-2</v>
+        <v>8.0788470000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15173,10 +15255,10 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="63" t="s">
+      <c r="AS98" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="AT98" s="64"/>
+      <c r="AT98" s="62"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15293,10 +15375,10 @@
       <c r="AL99" s="1">
         <v>-863000000</v>
       </c>
-      <c r="AS99" s="48" t="s">
+      <c r="AS99" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AT99" s="49">
+      <c r="AT99" s="47">
         <f>AT86+AT87</f>
         <v>61270000000</v>
       </c>
@@ -15416,12 +15498,12 @@
       <c r="AL100" s="10">
         <v>-58876000000</v>
       </c>
-      <c r="AS100" s="50" t="s">
+      <c r="AS100" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="AT100" s="51">
+      <c r="AT100" s="49">
         <f>AT99/AT103</f>
-        <v>2.5231817582243975E-2</v>
+        <v>2.4155621653131662E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15539,12 +15621,12 @@
       <c r="AL101" s="1">
         <v>-141000000</v>
       </c>
-      <c r="AS101" s="48" t="s">
+      <c r="AS101" s="46" t="s">
         <v>137</v>
       </c>
       <c r="AT101" s="34" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2367013249920</v>
+        <v>2475199600320</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15662,12 +15744,12 @@
       <c r="AL102" s="10">
         <v>-293000000</v>
       </c>
-      <c r="AS102" s="50" t="s">
+      <c r="AS102" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AT102" s="51">
+      <c r="AT102" s="49">
         <f>AT101/AT103</f>
-        <v>0.97476818241775598</v>
+        <v>0.97584437834686832</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15785,12 +15867,12 @@
       <c r="AL103" s="1">
         <v>14224000000</v>
       </c>
-      <c r="AS103" s="52" t="s">
+      <c r="AS103" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="AT103" s="55">
+      <c r="AT103" s="53">
         <f>AT99+AT101</f>
-        <v>2428283249920</v>
+        <v>2536469600320</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15908,10 +15990,10 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="63" t="s">
+      <c r="AS104" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="AT104" s="64"/>
+      <c r="AT104" s="62"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15939,127 +16021,127 @@
         <v>1.4417637271214643</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="51">(H106/G106)-1</f>
+        <f t="shared" ref="H105:Z105" si="56">(H106/G106)-1</f>
         <v>1.0115843270868825</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.41937669376693765</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.56921241050119331</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.1368821292775666</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>1.1571906354515051</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.29922480620155034</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.48544152744630065</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.51783419023136257</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.38477823647718856</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-5.8324415227029469E-2</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.11526909651757444</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>8.49406798165806E-2</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-9.3183952770696354E-2</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.16838055781608352</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-0.18786804280377378</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.21097770154373929</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.18658253927375745</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-0.13629951166576237</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.38811408468400543</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="52">(AA106/Z106)-1</f>
+        <f t="shared" ref="AA105" si="57">(AA106/Z106)-1</f>
         <v>0.11508870383779879</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="53">(AB106/AA106)-1</f>
+        <f t="shared" ref="AB105" si="58">(AB106/AA106)-1</f>
         <v>0.19002394577702009</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" ref="AC105" si="54">(AC106/AB106)-1</f>
+        <f t="shared" ref="AC105" si="59">(AC106/AB106)-1</f>
         <v>-0.1618294055455135</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" ref="AD105" si="55">(AD106/AC106)-1</f>
+        <f t="shared" ref="AD105" si="60">(AD106/AC106)-1</f>
         <v>8.8297526041666741E-2</v>
       </c>
       <c r="AE105" s="15">
-        <f t="shared" ref="AE105" si="56">(AE106/AD106)-1</f>
+        <f t="shared" ref="AE105" si="61">(AE106/AD106)-1</f>
         <v>-0.13497345397442606</v>
       </c>
       <c r="AF105" s="15">
-        <f t="shared" ref="AF105" si="57">(AF106/AE106)-1</f>
+        <f t="shared" ref="AF105" si="62">(AF106/AE106)-1</f>
         <v>7.9789073305670755E-2</v>
       </c>
       <c r="AG105" s="15">
-        <f t="shared" ref="AG105" si="58">(AG106/AF106)-1</f>
+        <f t="shared" ref="AG105" si="63">(AG106/AF106)-1</f>
         <v>0.25602433752301668</v>
       </c>
       <c r="AH105" s="15">
-        <f t="shared" ref="AH105" si="59">(AH106/AG106)-1</f>
+        <f t="shared" ref="AH105" si="64">(AH106/AG106)-1</f>
         <v>2.7853910383070835E-2</v>
       </c>
       <c r="AI105" s="15">
-        <f t="shared" ref="AI105" si="60">(AI106/AH106)-1</f>
+        <f t="shared" ref="AI105" si="65">(AI106/AH106)-1</f>
         <v>0.18628302120798712</v>
       </c>
       <c r="AJ105" s="15">
-        <f t="shared" ref="AJ105" si="61">(AJ106/AI106)-1</f>
+        <f t="shared" ref="AJ105" si="66">(AJ106/AI106)-1</f>
         <v>0.18227914270778878</v>
       </c>
       <c r="AK105" s="15">
-        <f t="shared" ref="AK105" si="62">(AK106/AJ106)-1</f>
+        <f t="shared" ref="AK105" si="67">(AK106/AJ106)-1</f>
         <v>0.24061546624220709</v>
       </c>
       <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="63">(AL106/AK106)-1</f>
+        <f t="shared" ref="AL105" si="68">(AL106/AK106)-1</f>
         <v>0.16092875726148481</v>
       </c>
       <c r="AM105" s="15"/>
@@ -16073,7 +16155,7 @@
       </c>
       <c r="AT105" s="22">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.964345985760482E-2</v>
+        <v>7.9543653718786966E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16193,23 +16275,23 @@
       </c>
       <c r="AM106" s="23">
         <f>AL106*(1+$AT$106)</f>
-        <v>71723155647.597168</v>
+        <v>71871032797.105103</v>
       </c>
       <c r="AN106" s="23">
-        <f t="shared" ref="AN106:AQ106" si="64">AM106*(1+$AT$106)</f>
-        <v>78960706320.119263</v>
+        <f t="shared" ref="AN106:AQ106" si="69">AM106*(1+$AT$106)</f>
+        <v>79286640705.499054</v>
       </c>
       <c r="AO106" s="23">
-        <f t="shared" si="64"/>
-        <v>86928594904.63588</v>
+        <f t="shared" si="69"/>
+        <v>87467386368.435608</v>
       </c>
       <c r="AP106" s="23">
-        <f t="shared" si="64"/>
-        <v>95700519464.18396</v>
+        <f t="shared" si="69"/>
+        <v>96492216217.638016</v>
       </c>
       <c r="AQ106" s="23">
-        <f t="shared" si="64"/>
-        <v>105357614899.46996</v>
+        <f t="shared" si="69"/>
+        <v>106448222327.94392</v>
       </c>
       <c r="AR106" s="24" t="s">
         <v>142</v>
@@ -16219,7 +16301,7 @@
       </c>
       <c r="AT106" s="26">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>0.10090954040119052</v>
+        <v>0.10317937032195598</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16267,7 +16349,7 @@
       <c r="AP107" s="24"/>
       <c r="AQ107" s="27">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>1976294245521.2659</v>
+        <v>2000405554946.5505</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>144</v>
@@ -16281,24 +16363,24 @@
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="AM108" s="27">
-        <f t="shared" ref="AM108:AO108" si="65">AM107+AM106</f>
-        <v>71723155647.597168</v>
+        <f t="shared" ref="AM108:AO108" si="70">AM107+AM106</f>
+        <v>71871032797.105103</v>
       </c>
       <c r="AN108" s="27">
-        <f t="shared" si="65"/>
-        <v>78960706320.119263</v>
+        <f t="shared" si="70"/>
+        <v>79286640705.499054</v>
       </c>
       <c r="AO108" s="27">
-        <f t="shared" si="65"/>
-        <v>86928594904.63588</v>
+        <f t="shared" si="70"/>
+        <v>87467386368.435608</v>
       </c>
       <c r="AP108" s="27">
         <f>AP107+AP106</f>
-        <v>95700519464.18396</v>
+        <v>96492216217.638016</v>
       </c>
       <c r="AQ108" s="27">
         <f>AQ107+AQ106</f>
-        <v>2081651860420.7358</v>
+        <v>2106853777274.4944</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>139</v>
@@ -16308,14 +16390,14 @@
       </c>
       <c r="AT108" s="32">
         <f>AT105</f>
-        <v>7.964345985760482E-2</v>
+        <v>7.9543653718786966E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="59" t="s">
+      <c r="AM109" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="AN109" s="60"/>
+      <c r="AN109" s="58"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="33" t="s">
@@ -16323,7 +16405,7 @@
       </c>
       <c r="AN110" s="34">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1692762004664.8171</v>
+        <v>1712098085704.479</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16350,14 +16432,14 @@
       </c>
       <c r="AN113" s="34">
         <f>AN110+AN111-AN112</f>
-        <v>1736241004664.8171</v>
+        <v>1755577085704.479</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM114" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="AN114" s="47">
+      <c r="AN114" s="45">
         <f>AL34*(1+(5*AR16))</f>
         <v>7254679754.7058077</v>
       </c>
@@ -16366,18 +16448,18 @@
       <c r="AM115" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="AN115" s="58">
+      <c r="AN115" s="56">
         <f>AN113/AN114</f>
-        <v>239.32703625388703</v>
+        <v>241.99236149131318</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AN116" s="57" cm="1">
+      <c r="AN116" s="55" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>317.92</v>
+        <v>334.05</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16386,7 +16468,7 @@
       </c>
       <c r="AN117" s="37">
         <f>(AN115/AN116)-1</f>
-        <v>-0.2472098758999528</v>
+        <v>-0.27558041762815999</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721C260-FDFF-654D-B7D4-B2535E797418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319758D7-187E-7346-8610-960D224F490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1013,6 +1013,14 @@
     <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,14 +1039,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,40 +2550,37 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>333.4</v>
+    <v>351.47</v>
     <v>213.43100000000001</v>
-    <v>0.9254</v>
-    <v>6.97</v>
-    <v>2.1385999999999999E-2</v>
-    <v>1.1599999999999999</v>
-    <v>3.4849999999999998E-3</v>
+    <v>0.92120000000000002</v>
+    <v>6.15</v>
+    <v>1.8436999999999999E-2</v>
     <v>USD</v>
-    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, Dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of its public, private, and hybrid server products and cloud services. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services, such as Windows, devices, gaming, and search and news advertising.</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices and solutions. It operates through three segments. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Commercial comprising Office (including Office 365 subscriptions), Exchange, SharePoint, Microsoft Teams, Office 365 Security and Compliance, and Microsoft Viva; Office Consumer, LinkedIn, and Dynamics business solutions. Intelligent Cloud segment consists of the Company’s public, private, and hybrid server products and cloud services, including Azure and other cloud services; SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses, and Nuance and GitHub. More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>221000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>333.4</v>
+    <v>340.12</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999919235939</v>
+    <v>45099.99988087891</v>
     <v>4</v>
-    <v>323.88</v>
-    <v>2475199600320</v>
+    <v>333.34</v>
+    <v>2525909628480</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>324.02</v>
-    <v>35.326900000000002</v>
-    <v>325.92</v>
-    <v>332.89</v>
-    <v>334.05</v>
+    <v>334.12</v>
+    <v>36.821599999999997</v>
+    <v>333.56</v>
+    <v>339.71</v>
     <v>7435488000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>36630633</v>
-    <v>29214550</v>
+    <v>52435</v>
+    <v>29225302</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2627,8 +2624,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2650,7 +2645,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2667,7 +2661,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2678,16 +2672,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2760,19 +2751,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2826,9 +2811,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2836,9 +2818,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3210,7 +3189,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN120" sqref="AN120"/>
+      <selection pane="bottomRight" activeCell="AO98" sqref="AO98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5379,17 +5358,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="63">
+      <c r="AS16" s="57">
         <f>AT101/AL3</f>
-        <v>12.48398446724164</v>
-      </c>
-      <c r="AT16" s="63">
+        <v>12.739746953548192</v>
+      </c>
+      <c r="AT16" s="57">
         <f>AT101/AL28</f>
-        <v>34.028975230553492</v>
-      </c>
-      <c r="AU16" s="64">
+        <v>34.726135286645217</v>
+      </c>
+      <c r="AU16" s="58">
         <f>AT101/AL106</f>
-        <v>37.992902428586781</v>
+        <v>38.771272444396693</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5755,17 +5734,17 @@
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
       </c>
-      <c r="AS19" s="63">
+      <c r="AS19" s="57">
         <f>AT101/AM3</f>
-        <v>11.725246803979157</v>
-      </c>
-      <c r="AT19" s="63">
+        <v>11.965464843581241</v>
+      </c>
+      <c r="AT19" s="57">
         <f>AT101/AM28</f>
-        <v>34.21903392990545</v>
-      </c>
-      <c r="AU19" s="64">
+        <v>34.920087765712942</v>
+      </c>
+      <c r="AU19" s="58">
         <f>AT101/AM106</f>
-        <v>34.439460572489487</v>
+        <v>35.145030343598194</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6847,19 +6826,19 @@
       <c r="AL28" s="11">
         <v>72738000000</v>
       </c>
-      <c r="AM28" s="65">
+      <c r="AM28" s="59">
         <v>72334000001</v>
       </c>
-      <c r="AN28" s="65">
+      <c r="AN28" s="59">
         <v>80917000000</v>
       </c>
-      <c r="AO28" s="65">
+      <c r="AO28" s="59">
         <v>90916000000</v>
       </c>
-      <c r="AP28" s="65">
+      <c r="AP28" s="59">
         <v>105400000000</v>
       </c>
-      <c r="AQ28" s="65">
+      <c r="AQ28" s="59">
         <v>124100000000</v>
       </c>
     </row>
@@ -7150,19 +7129,19 @@
       <c r="AL30" s="2">
         <v>0.3669</v>
       </c>
-      <c r="AM30" s="66">
+      <c r="AM30" s="60">
         <v>1.3669</v>
       </c>
-      <c r="AN30" s="66">
+      <c r="AN30" s="60">
         <v>2.3668999999999998</v>
       </c>
-      <c r="AO30" s="66">
+      <c r="AO30" s="60">
         <v>3.3668999999999998</v>
       </c>
-      <c r="AP30" s="66">
+      <c r="AP30" s="60">
         <v>4.3669000000000002</v>
       </c>
-      <c r="AQ30" s="66">
+      <c r="AQ30" s="60">
         <v>5.3669000000000002</v>
       </c>
     </row>
@@ -13384,10 +13363,10 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="59" t="s">
+      <c r="AS83" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AT83" s="60"/>
+      <c r="AT83" s="64"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13504,10 +13483,10 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="61" t="s">
+      <c r="AS84" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AT84" s="62"/>
+      <c r="AT84" s="66"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14645,10 +14624,10 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="61" t="s">
+      <c r="AS93" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="AT93" s="62"/>
+      <c r="AT93" s="66"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14892,7 +14871,7 @@
       </c>
       <c r="AT95" s="54" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.9254</v>
+        <v>0.92120000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15137,7 +15116,7 @@
       </c>
       <c r="AT97" s="51">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0788470000000001E-2</v>
+        <v>8.0607659999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15255,10 +15234,10 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="61" t="s">
+      <c r="AS98" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="AT98" s="62"/>
+      <c r="AT98" s="66"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15503,7 +15482,7 @@
       </c>
       <c r="AT100" s="49">
         <f>AT99/AT103</f>
-        <v>2.4155621653131662E-2</v>
+        <v>2.3682159261588218E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15626,7 +15605,7 @@
       </c>
       <c r="AT101" s="34" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2475199600320</v>
+        <v>2525909628480</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15749,7 +15728,7 @@
       </c>
       <c r="AT102" s="49">
         <f>AT101/AT103</f>
-        <v>0.97584437834686832</v>
+        <v>0.97631784073841177</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15872,7 +15851,7 @@
       </c>
       <c r="AT103" s="53">
         <f>AT99+AT101</f>
-        <v>2536469600320</v>
+        <v>2587179628480</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15990,10 +15969,10 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="61" t="s">
+      <c r="AS104" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="AT104" s="62"/>
+      <c r="AT104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16155,7 +16134,7 @@
       </c>
       <c r="AT105" s="22">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.9543653718786966E-2</v>
+        <v>7.9391524718187834E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16349,7 +16328,7 @@
       <c r="AP107" s="24"/>
       <c r="AQ107" s="27">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>2000405554946.5505</v>
+        <v>2006000538713.6667</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>144</v>
@@ -16380,7 +16359,7 @@
       </c>
       <c r="AQ108" s="27">
         <f>AQ107+AQ106</f>
-        <v>2106853777274.4944</v>
+        <v>2112448761041.6106</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>139</v>
@@ -16390,14 +16369,14 @@
       </c>
       <c r="AT108" s="32">
         <f>AT105</f>
-        <v>7.9543653718786966E-2</v>
+        <v>7.9391524718187834E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="57" t="s">
+      <c r="AM109" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AN109" s="58"/>
+      <c r="AN109" s="62"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="33" t="s">
@@ -16405,7 +16384,7 @@
       </c>
       <c r="AN110" s="34">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1712098085704.479</v>
+        <v>1717027586017.1787</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16432,7 +16411,7 @@
       </c>
       <c r="AN113" s="34">
         <f>AN110+AN111-AN112</f>
-        <v>1755577085704.479</v>
+        <v>1760506586017.1787</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16450,7 +16429,7 @@
       </c>
       <c r="AN115" s="56">
         <f>AN113/AN114</f>
-        <v>241.99236149131318</v>
+        <v>242.67185396780769</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16458,8 +16437,8 @@
         <v>153</v>
       </c>
       <c r="AN116" s="55" cm="1">
-        <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>334.05</v>
+        <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
+        <v>339.71</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16468,7 +16447,7 @@
       </c>
       <c r="AN117" s="37">
         <f>(AN115/AN116)-1</f>
-        <v>-0.27558041762815999</v>
+        <v>-0.28564995446761143</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319758D7-187E-7346-8610-960D224F490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC8906-BBD2-7C4B-9AB9-03011F76D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>CAPEX as % of Revenue</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>3yr Rev Growth</t>
@@ -498,9 +495,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -560,18 +554,40 @@
   <si>
     <t>Forward P/FCF</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -734,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -783,19 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -834,46 +837,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -898,12 +861,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -929,116 +901,111 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +1056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MSFT</a:t>
+              <a:t>Microsoft</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1127,10 +1094,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11156249500883612"/>
-          <c:y val="0.15947345106481295"/>
-          <c:w val="0.83389205288600332"/>
-          <c:h val="0.65269697504631641"/>
+          <c:x val="9.3398692810457512E-2"/>
+          <c:y val="0.14371731594775142"/>
+          <c:w val="0.84647058823529397"/>
+          <c:h val="0.63161727233075471"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1151,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
@@ -1306,7 +1393,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADEF-7242-8722-04F63E0312E6}"/>
+              <c16:uniqueId val="{00000000-99EB-DE4E-A978-CF49D39F7874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1315,11 +1402,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1357,129 +1444,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>71800000</c:v>
+                  <c:v>39300000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129000000</c:v>
+                  <c:v>71900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199700000</c:v>
+                  <c:v>123900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275000000</c:v>
+                  <c:v>170500000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>456900000</c:v>
+                  <c:v>279200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>746400000</c:v>
+                  <c:v>462700000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1153600000</c:v>
+                  <c:v>708100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1552000000</c:v>
+                  <c:v>953000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1959000000</c:v>
+                  <c:v>1146000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2436000000</c:v>
+                  <c:v>1453000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3859000000</c:v>
+                  <c:v>2195000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5871000000</c:v>
+                  <c:v>3454000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8141000000</c:v>
+                  <c:v>4490000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12901000000</c:v>
+                  <c:v>7785000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15023000000</c:v>
+                  <c:v>9421000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12686000000</c:v>
+                  <c:v>7346000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12597000000</c:v>
+                  <c:v>7829000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16165000000</c:v>
+                  <c:v>9993000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13382000000</c:v>
+                  <c:v>8168000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17483000000</c:v>
+                  <c:v>12254000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19165000000</c:v>
+                  <c:v>12599000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21541000000</c:v>
+                  <c:v>14065000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25870000000</c:v>
+                  <c:v>17681000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22383000000</c:v>
+                  <c:v>14569000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27837000000</c:v>
+                  <c:v>18760000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31132000000</c:v>
+                  <c:v>23150000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25614000000</c:v>
+                  <c:v>16978000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31236000000</c:v>
+                  <c:v>21863000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33629000000</c:v>
+                  <c:v>22074000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25245000000</c:v>
+                  <c:v>12193000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27616000000</c:v>
+                  <c:v>16798000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34149000000</c:v>
+                  <c:v>21204000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49468000000</c:v>
+                  <c:v>16571000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58056000000</c:v>
+                  <c:v>39240000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>68423000000</c:v>
+                  <c:v>44281000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85134000000</c:v>
+                  <c:v>61271000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100239000000</c:v>
+                  <c:v>72738000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADEF-7242-8722-04F63E0312E6}"/>
+              <c16:uniqueId val="{00000001-99EB-DE4E-A978-CF49D39F7874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1488,11 +1695,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1530,9 +1737,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1652,7 +1979,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ADEF-7242-8722-04F63E0312E6}"/>
+              <c16:uniqueId val="{00000002-99EB-DE4E-A978-CF49D39F7874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1666,11 +1993,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="505699856"/>
-        <c:axId val="505701584"/>
+        <c:axId val="1601638928"/>
+        <c:axId val="1575761456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="505699856"/>
+        <c:axId val="1601638928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +2025,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1710,7 +2037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505701584"/>
+        <c:crossAx val="1575761456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1718,7 +2045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505701584"/>
+        <c:axId val="1575761456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +2093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505699856"/>
+        <c:crossAx val="1601638928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1784,10 +2111,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3101841624194277"/>
-          <c:y val="0.89536927459963289"/>
-          <c:w val="0.35806592886247635"/>
-          <c:h val="6.2390959298349112E-2"/>
+          <c:x val="0.34490432813545363"/>
+          <c:y val="0.90816762700580811"/>
+          <c:w val="0.31019134372909268"/>
+          <c:h val="5.9762402148711001E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2367,22 +2694,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>32253</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>37492</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DDC57D-3470-6CAF-7392-84285EFEA7F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE44165-6BE4-D8D0-5961-F4B8945AC756}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,6 +2728,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,11 +2931,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>351.47</v>
+    <v>366.78</v>
     <v>213.43100000000001</v>
-    <v>0.92120000000000002</v>
-    <v>6.15</v>
-    <v>1.8436999999999999E-2</v>
+    <v>0.90949999999999998</v>
+    <v>5.87</v>
+    <v>1.7009E-2</v>
+    <v>-12.98</v>
+    <v>-3.6982000000000001E-2</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices and solutions. It operates through three segments. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Commercial comprising Office (including Office 365 subscriptions), Exchange, SharePoint, Microsoft Teams, Office 365 Security and Compliance, and Microsoft Viva; Office Consumer, LinkedIn, and Dynamics business solutions. Intelligent Cloud segment consists of the Company’s public, private, and hybrid server products and cloud services, including Azure and other cloud services; SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses, and Nuance and GitHub. More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -2562,25 +2945,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>340.12</v>
+    <v>351.89</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.99988087891</v>
+    <v>45132.999989316406</v>
     <v>4</v>
-    <v>333.34</v>
-    <v>2525909628480</v>
+    <v>345.07</v>
+    <v>2609707578240</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>334.12</v>
-    <v>36.821599999999997</v>
-    <v>333.56</v>
-    <v>339.71</v>
+    <v>347.11</v>
+    <v>37.4069</v>
+    <v>345.11</v>
+    <v>350.98</v>
+    <v>338</v>
     <v>7435488000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>52435</v>
-    <v>29225302</v>
+    <v>41637739</v>
+    <v>29123265</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2624,6 +3008,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2645,6 +3031,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2661,7 +3048,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2672,13 +3059,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2751,13 +3141,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2811,6 +3207,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2818,6 +3217,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3186,10 +3588,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO98" sqref="AO98"/>
+      <selection pane="bottomRight" activeCell="AN101" sqref="AN101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3316,19 +3718,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="39">
+      <c r="AM1" s="24">
         <v>2023</v>
       </c>
-      <c r="AN1" s="39">
+      <c r="AN1" s="24">
         <v>2024</v>
       </c>
-      <c r="AO1" s="39">
+      <c r="AO1" s="24">
         <v>2025</v>
       </c>
-      <c r="AP1" s="39">
+      <c r="AP1" s="24">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="39">
+      <c r="AQ1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3337,124 +3739,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3579,217 +3981,217 @@
         <v>198270000000</v>
       </c>
       <c r="AM3" s="20">
-        <f>211100000000</f>
-        <v>211100000000</v>
+        <f>211200000000</f>
+        <v>211200000000</v>
       </c>
       <c r="AN3" s="20">
-        <v>235000000000</v>
+        <v>235100000000</v>
       </c>
       <c r="AO3" s="20">
-        <v>262800000000</v>
+        <v>264400000000</v>
       </c>
       <c r="AP3" s="20">
-        <v>292000000000</v>
+        <v>308800000000</v>
       </c>
       <c r="AQ3" s="20">
         <v>323700000000</v>
       </c>
-      <c r="AR3" s="40" t="s">
+      <c r="AR3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="41" t="s">
+      <c r="AU3" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="AT3" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU3" s="41" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="67">
         <f>(C3/B3)-1</f>
         <v>0.75139240506329119</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>0.70800809482509397</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>0.36002031144211233</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
         <v>0.47280647168637202</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>0.5577150583065742</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.49652815449712495</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>0.36042338782759997</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.23874233946176382</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>0.27704882770488282</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>0.46050193700522146</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>0.30988351977857231</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="67">
         <f t="shared" si="0"/>
         <v>0.27522451135763348</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="67">
         <f t="shared" si="0"/>
         <v>0.36336647334990335</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="67">
         <f t="shared" si="0"/>
         <v>0.16250569706790907</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="67">
         <f t="shared" si="0"/>
         <v>0.10193413486670155</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="67">
         <f t="shared" si="0"/>
         <v>0.12132352941176472</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="67">
         <f t="shared" si="0"/>
         <v>0.13474352194606021</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="67">
         <f t="shared" si="0"/>
         <v>0.14440612669711372</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="67">
         <f t="shared" si="0"/>
         <v>8.0168318175648068E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="67">
         <f t="shared" si="0"/>
         <v>0.11294862772695291</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="67">
         <f t="shared" si="0"/>
         <v>0.15446456799602548</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="67">
         <f t="shared" si="0"/>
         <v>0.18187864324556946</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="67">
         <f t="shared" si="0"/>
         <v>-3.2820258192651441E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="67">
         <f t="shared" si="0"/>
         <v>6.9254068484008391E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="67">
         <f t="shared" si="0"/>
         <v>0.11937455988733126</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="67">
         <f t="shared" si="0"/>
         <v>5.4044007263057026E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="67">
         <f t="shared" si="0"/>
         <v>5.5966252051598442E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="67">
         <f t="shared" si="0"/>
         <v>0.11540289534868786</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="67">
         <f t="shared" si="0"/>
         <v>7.7700874091647165E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="67">
         <f t="shared" ref="AF4" si="1">(AF3/AE3)-1</f>
         <v>-8.8266723658901425E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="67">
         <f t="shared" ref="AG4" si="2">(AG3/AF3)-1</f>
         <v>5.4266291608063844E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="67">
         <f t="shared" ref="AH4" si="3">(AH3/AG3)-1</f>
         <v>0.22690383546414683</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="67">
         <f t="shared" ref="AI4" si="4">(AI3/AH3)-1</f>
         <v>0.14029539688292858</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="67">
         <f t="shared" ref="AJ4" si="5">(AJ3/AI3)-1</f>
         <v>0.13645574247276371</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="67">
         <f t="shared" ref="AK4" si="6">(AK3/AJ3)-1</f>
         <v>0.17531727441177503</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="67">
         <f t="shared" ref="AL4:AQ4" si="7">(AL3/AK3)-1</f>
         <v>0.17956070629670173</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="7"/>
-        <v>6.4709739244464659E-2</v>
+        <v>6.52141019821455E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="7"/>
-        <v>0.11321648507816207</v>
+        <v>0.1131628787878789</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="7"/>
-        <v>0.11829787234042555</v>
+        <v>0.12462781794980859</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="7"/>
-        <v>0.11111111111111116</v>
+        <v>0.16792738275340402</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="7"/>
-        <v>0.10856164383561651</v>
-      </c>
-      <c r="AR4" s="42">
+        <v>4.8251295336787514E-2</v>
+      </c>
+      <c r="AR4" s="27">
         <f>(AL4+AK4+AJ4)/3</f>
         <v>0.16377790772708015</v>
       </c>
-      <c r="AS4" s="42">
+      <c r="AS4" s="27">
         <f>(AL20+AK20+AJ20)/3</f>
         <v>0.20007529474142496</v>
       </c>
-      <c r="AT4" s="42">
+      <c r="AT4" s="27">
         <f>(AL29+AK29+AJ29)/3</f>
         <v>0.23310133884414527</v>
       </c>
-      <c r="AU4" s="42">
-        <f>(AL105+AK105+AJ105)/3</f>
+      <c r="AU4" s="27">
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>0.19460778873716023</v>
       </c>
     </row>
@@ -4024,17 +4426,17 @@
       <c r="AL6" s="10">
         <v>135620000000</v>
       </c>
-      <c r="AR6" s="40" t="s">
+      <c r="AR6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="AS6" s="41" t="s">
+      <c r="AU6" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="AT6" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU6" s="41" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4152,20 +4554,20 @@
       <c r="AL7" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR7" s="42">
+      <c r="AR7" s="27">
         <f>AL7</f>
         <v>0.68400000000000005</v>
       </c>
-      <c r="AS7" s="43">
+      <c r="AS7" s="28">
         <f>AL21</f>
         <v>0.50560000000000005</v>
       </c>
-      <c r="AT7" s="43">
+      <c r="AT7" s="28">
         <f>AL30</f>
         <v>0.3669</v>
       </c>
-      <c r="AU7" s="43">
-        <f>AL106/AL3</f>
+      <c r="AU7" s="28">
+        <f>AL107/AL3</f>
         <v>0.32858727997175569</v>
       </c>
     </row>
@@ -4174,28 +4576,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>610000000</v>
@@ -4287,7 +4689,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4437,17 +4839,17 @@
         <f t="shared" si="8"/>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AR9" s="40" t="s">
+      <c r="AR9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="41" t="s">
+      <c r="AT9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="41" t="s">
+      <c r="AU9" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4455,70 +4857,70 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1">
         <v>5127000000</v>
@@ -4565,19 +4967,19 @@
       <c r="AL10" s="1">
         <v>5900000000</v>
       </c>
-      <c r="AR10" s="42">
+      <c r="AR10" s="27">
         <f>AL9</f>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AS10" s="43">
+      <c r="AS10" s="28">
         <f>AL13</f>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AT10" s="43">
+      <c r="AT10" s="28">
         <f>AL80</f>
         <v>3.7837292580824126E-2</v>
       </c>
-      <c r="AU10" s="43">
+      <c r="AU10" s="28">
         <f>AL89</f>
         <v>0.12047208352246935</v>
       </c>
@@ -4587,70 +4989,70 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1">
         <v>13039000000</v>
@@ -4813,22 +5215,22 @@
       <c r="AL12" s="1">
         <v>27725000000</v>
       </c>
-      <c r="AR12" s="40" t="s">
+      <c r="AR12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT12" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="AS12" s="41" t="s">
+      <c r="AU12" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="AT12" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU12" s="41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4978,15 +5380,15 @@
         <f t="shared" si="9"/>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AR13" s="42">
+      <c r="AR13" s="27">
         <f>AL28/AL72</f>
         <v>0.43675469250999749</v>
       </c>
-      <c r="AS13" s="43">
+      <c r="AS13" s="28">
         <f>AL28/AL54</f>
         <v>0.19936958666812848</v>
       </c>
-      <c r="AT13" s="43">
+      <c r="AT13" s="28">
         <f>AL22/(AL72+AL56+AL61)</f>
         <v>0.36601671553737292</v>
       </c>
@@ -5045,70 +5447,70 @@
         <v>748000000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,17 +5628,17 @@
       <c r="AL15" s="1">
         <v>52237000000</v>
       </c>
-      <c r="AR15" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS15" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT15" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU15" s="41" t="s">
-        <v>158</v>
+      <c r="AR15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT15" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU15" s="26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5358,17 +5760,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="57">
+      <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>12.739746953548192</v>
-      </c>
-      <c r="AT16" s="57">
+        <v>13.162392587078227</v>
+      </c>
+      <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>34.726135286645217</v>
-      </c>
-      <c r="AU16" s="58">
-        <f>AT101/AL106</f>
-        <v>38.771272444396693</v>
+        <v>35.878187168192689</v>
+      </c>
+      <c r="AU16" s="31">
+        <f>AT101/AL107</f>
+        <v>40.057523188997529</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5376,76 +5778,76 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>151000000</v>
@@ -5602,17 +6004,17 @@
       <c r="AL18" s="1">
         <v>14460000000</v>
       </c>
-      <c r="AR18" s="40" t="s">
+      <c r="AR18" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS18" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT18" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="AS18" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT18" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU18" s="41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,26 +6132,41 @@
       <c r="AL19" s="10">
         <v>100239000000</v>
       </c>
-      <c r="AR19" s="44">
+      <c r="AM19" s="58">
+        <v>101500000000</v>
+      </c>
+      <c r="AN19" s="58">
+        <v>116700000000</v>
+      </c>
+      <c r="AO19" s="58">
+        <v>132700000000</v>
+      </c>
+      <c r="AP19" s="58">
+        <v>164500000000</v>
+      </c>
+      <c r="AQ19" s="58">
+        <v>191800000000</v>
+      </c>
+      <c r="AR19" s="29">
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
       </c>
-      <c r="AS19" s="57">
+      <c r="AS19" s="30">
         <f>AT101/AM3</f>
-        <v>11.965464843581241</v>
-      </c>
-      <c r="AT19" s="57">
+        <v>12.356569972727273</v>
+      </c>
+      <c r="AT19" s="30">
         <f>AT101/AM28</f>
-        <v>34.920087765712942</v>
-      </c>
-      <c r="AU19" s="58">
+        <v>36.127020477594584</v>
+      </c>
+      <c r="AU19" s="31">
         <f>AT101/AM106</f>
-        <v>35.145030343598194</v>
+        <v>40.551745446973818</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5896,10 +6313,30 @@
         <f t="shared" ref="AL20" si="22">(AL19/AK19)-1</f>
         <v>0.17742617520614568</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" ref="AM20" si="23">(AM19/AL19)-1</f>
+        <v>1.2579933957840739E-2</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" ref="AN20" si="24">(AN19/AM19)-1</f>
+        <v>0.14975369458128074</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="25">(AO19/AN19)-1</f>
+        <v>0.13710368466152523</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" ref="AP20" si="26">(AP19/AO19)-1</f>
+        <v>0.23963828183873392</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" ref="AQ20" si="27">(AQ19/AP19)-1</f>
+        <v>0.16595744680851054</v>
+      </c>
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6013,6 +6450,32 @@
       </c>
       <c r="AL21" s="2">
         <v>0.50560000000000005</v>
+      </c>
+      <c r="AM21" s="60">
+        <f>AM19/AM3</f>
+        <v>0.48058712121212122</v>
+      </c>
+      <c r="AN21" s="60">
+        <f t="shared" ref="AN21:AQ21" si="28">AN19/AN3</f>
+        <v>0.49638451722671206</v>
+      </c>
+      <c r="AO21" s="60">
+        <f t="shared" si="28"/>
+        <v>0.50189107413010592</v>
+      </c>
+      <c r="AP21" s="60">
+        <f t="shared" si="28"/>
+        <v>0.53270725388601037</v>
+      </c>
+      <c r="AQ21" s="60">
+        <f t="shared" si="28"/>
+        <v>0.59252394192153224</v>
+      </c>
+      <c r="AT21" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU21" s="26" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6130,6 +6593,14 @@
       <c r="AL22" s="10">
         <v>83383000000</v>
       </c>
+      <c r="AT22" s="62">
+        <f>AL98/AT101*-1</f>
+        <v>6.9490544270980493E-3</v>
+      </c>
+      <c r="AU22" s="57">
+        <f>AL107/AT101</f>
+        <v>2.4964099634464339E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6826,25 +7297,25 @@
       <c r="AL28" s="11">
         <v>72738000000</v>
       </c>
-      <c r="AM28" s="59">
-        <v>72334000001</v>
-      </c>
-      <c r="AN28" s="59">
-        <v>80917000000</v>
-      </c>
-      <c r="AO28" s="59">
-        <v>90916000000</v>
-      </c>
-      <c r="AP28" s="59">
-        <v>105400000000</v>
-      </c>
-      <c r="AQ28" s="59">
+      <c r="AM28" s="32">
+        <v>72237000000</v>
+      </c>
+      <c r="AN28" s="32">
+        <v>81894000000</v>
+      </c>
+      <c r="AO28" s="32">
+        <v>92916000000</v>
+      </c>
+      <c r="AP28" s="32">
+        <v>109800000000</v>
+      </c>
+      <c r="AQ28" s="32">
         <v>124100000000</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6860,156 +7331,156 @@
         <v>0.37610976594027434</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Z29" si="23">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Z29" si="29">(F28/E28)-1</f>
         <v>0.63753665689149552</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.6572349570200573</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.53036524746055758</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.34585510521112828</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.20251836306400839</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.26788830715532286</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.5106675843083277</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.57357630979498864</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.29994209612043998</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.73385300668151454</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.21014771997430959</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.22025262710964866</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>6.5750068064252654E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.27640822582705327</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.18262783948764139</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.50024485798237017</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2.8154072139709552E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.1163584411461227</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.25709207252044086</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>-0.17600814433572765</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.28766559132404423</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="24">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="30">(AA28/Z28)-1</f>
         <v>0.23400852878464828</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="25">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="31">(AB28/AA28)-1</f>
         <v>-0.266609071274298</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="26">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="32">(AC28/AB28)-1</f>
         <v>0.28772529155377558</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" ref="AD29" si="27">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="33">(AD28/AC28)-1</f>
         <v>9.651008553263507E-3</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" ref="AE29" si="28">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="34">(AE28/AD28)-1</f>
         <v>-0.44763069674730449</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" ref="AF29" si="29">(AF28/AE28)-1</f>
+        <f t="shared" ref="AF29" si="35">(AF28/AE28)-1</f>
         <v>0.37767571557451007</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" ref="AG29" si="30">(AG28/AF28)-1</f>
+        <f t="shared" ref="AG29" si="36">(AG28/AF28)-1</f>
         <v>0.26229313013453992</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" ref="AH29" si="31">(AH28/AG28)-1</f>
+        <f t="shared" ref="AH29" si="37">(AH28/AG28)-1</f>
         <v>-0.21849651009243543</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" ref="AI29" si="32">(AI28/AH28)-1</f>
+        <f t="shared" ref="AI29" si="38">(AI28/AH28)-1</f>
         <v>1.3679922756623015</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29" si="33">(AJ28/AI28)-1</f>
+        <f t="shared" ref="AJ29" si="39">(AJ28/AI28)-1</f>
         <v>0.12846585117227316</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" ref="AK29" si="34">(AK28/AJ28)-1</f>
+        <f t="shared" ref="AK29" si="40">(AK28/AJ28)-1</f>
         <v>0.38368600528443353</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="35">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="41">(AL28/AK28)-1</f>
         <v>0.1871521600757291</v>
       </c>
       <c r="AM29" s="16">
-        <f t="shared" ref="AM29" si="36">(AM28/AL28)-1</f>
-        <v>-5.5541807445901314E-3</v>
+        <f t="shared" ref="AM29" si="42">(AM28/AL28)-1</f>
+        <v>-6.8877340592262692E-3</v>
       </c>
       <c r="AN29" s="16">
-        <f t="shared" ref="AN29" si="37">(AN28/AM28)-1</f>
-        <v>0.11865789253852044</v>
+        <f t="shared" ref="AN29" si="43">(AN28/AM28)-1</f>
+        <v>0.13368495369409028</v>
       </c>
       <c r="AO29" s="16">
-        <f t="shared" ref="AO29" si="38">(AO28/AN28)-1</f>
-        <v>0.12357106664854101</v>
+        <f t="shared" ref="AO29" si="44">(AO28/AN28)-1</f>
+        <v>0.13458861455051663</v>
       </c>
       <c r="AP29" s="16">
-        <f t="shared" ref="AP29" si="39">(AP28/AO28)-1</f>
-        <v>0.15931189229618559</v>
+        <f t="shared" ref="AP29" si="45">(AP28/AO28)-1</f>
+        <v>0.18171251452925219</v>
       </c>
       <c r="AQ29" s="16">
-        <f t="shared" ref="AQ29" si="40">(AQ28/AP28)-1</f>
-        <v>0.17741935483870974</v>
+        <f t="shared" ref="AQ29" si="46">(AQ28/AP28)-1</f>
+        <v>0.13023679417122036</v>
       </c>
       <c r="AT29" s="15"/>
       <c r="AU29" s="15"/>
@@ -7129,20 +7600,25 @@
       <c r="AL30" s="2">
         <v>0.3669</v>
       </c>
-      <c r="AM30" s="60">
-        <v>1.3669</v>
-      </c>
-      <c r="AN30" s="60">
-        <v>2.3668999999999998</v>
-      </c>
-      <c r="AO30" s="60">
-        <v>3.3668999999999998</v>
-      </c>
-      <c r="AP30" s="60">
-        <v>4.3669000000000002</v>
-      </c>
-      <c r="AQ30" s="60">
-        <v>5.3669000000000002</v>
+      <c r="AM30" s="33">
+        <f>AM28/AM3</f>
+        <v>0.34203125000000001</v>
+      </c>
+      <c r="AN30" s="33">
+        <f t="shared" ref="AN30:AQ30" si="47">AN28/AN3</f>
+        <v>0.34833687792428752</v>
+      </c>
+      <c r="AO30" s="33">
+        <f t="shared" si="47"/>
+        <v>0.35142208774583966</v>
+      </c>
+      <c r="AP30" s="33">
+        <f t="shared" si="47"/>
+        <v>0.35556994818652848</v>
+      </c>
+      <c r="AQ30" s="33">
+        <f t="shared" si="47"/>
+        <v>0.38337967253629907</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7260,6 +7736,21 @@
       <c r="AL31" s="12">
         <v>9.6999999999999993</v>
       </c>
+      <c r="AM31" s="59">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AN31" s="59">
+        <v>11.01</v>
+      </c>
+      <c r="AO31" s="59">
+        <v>12.5</v>
+      </c>
+      <c r="AP31" s="59">
+        <v>14.77</v>
+      </c>
+      <c r="AQ31" s="59">
+        <v>16.690000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -7611,7 +8102,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="19">
@@ -7619,143 +8110,143 @@
         <v>-2.0756156025277837E-2</v>
       </c>
       <c r="D35" s="19">
-        <f t="shared" ref="D35:Z35" si="41">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Z35" si="48">(D34-C34)/C34</f>
         <v>-0.13838664812239221</v>
       </c>
       <c r="E35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0.10088781275221953</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>0.16966904061583576</v>
       </c>
       <c r="G35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>5.4604063611293052E-2</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>5.212610759502509E-2</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>7.6684084168902697E-2</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.4134312696747113E-2</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.7868852459016394E-2</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.0733652312599681E-2</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.1722560975609755E-2</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>2.2379709063782172E-2</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>9.8504195549069685E-3</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>6.8641618497109827E-3</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-3.7674919268030141E-3</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-2.0169277867819198E-2</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1.1027384671935306E-3</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>1.1015237745548008E-3</v>
       </c>
       <c r="V35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-3.4384742343664038E-2</v>
       </c>
       <c r="W35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-6.1247744753584653E-2</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-4.2079708678939912E-2</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-5.0052798310454068E-2</v>
       </c>
       <c r="Z35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-7.6700755891507336E-3</v>
       </c>
       <c r="AA35" s="19">
-        <f t="shared" ref="AA35" si="42">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="49">(AA34-Z34)/Z34</f>
         <v>-3.7414584966954184E-2</v>
       </c>
       <c r="AB35" s="19">
-        <f t="shared" ref="AB35" si="43">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="50">(AB34-AA34)/AA34</f>
         <v>-1.0124519958105435E-2</v>
       </c>
       <c r="AC35" s="19">
-        <f t="shared" ref="AC35" si="44">(AC34-AB34)/AB34</f>
+        <f t="shared" ref="AC35" si="51">(AC34-AB34)/AB34</f>
         <v>-4.2323066071008704E-3</v>
       </c>
       <c r="AD35" s="19">
-        <f t="shared" ref="AD35" si="45">(AD34-AC34)/AC34</f>
+        <f t="shared" ref="AD35" si="52">(AD34-AC34)/AC34</f>
         <v>-8.3825265643447458E-3</v>
       </c>
       <c r="AE35" s="19">
-        <f t="shared" ref="AE35" si="46">(AE34-AD34)/AD34</f>
+        <f t="shared" ref="AE35" si="53">(AE34-AD34)/AD34</f>
         <v>-1.7263959995237527E-2</v>
       </c>
       <c r="AF35" s="19">
-        <f t="shared" ref="AF35" si="47">(AF34-AE34)/AE34</f>
+        <f t="shared" ref="AF35" si="54">(AF34-AE34)/AE34</f>
         <v>-2.9197964623212988E-2</v>
       </c>
       <c r="AG35" s="19">
-        <f t="shared" ref="AG35" si="48">(AG34-AF34)/AF34</f>
+        <f t="shared" ref="AG35" si="55">(AG34-AF34)/AF34</f>
         <v>-2.2588294022213903E-2</v>
       </c>
       <c r="AH35" s="19">
-        <f t="shared" ref="AH35" si="49">(AH34-AG34)/AG34</f>
+        <f t="shared" ref="AH35" si="56">(AH34-AG34)/AG34</f>
         <v>-4.8518896833503579E-3</v>
       </c>
       <c r="AI35" s="19">
-        <f t="shared" ref="AI35" si="50">(AI34-AH34)/AH34</f>
+        <f t="shared" ref="AI35" si="57">(AI34-AH34)/AH34</f>
         <v>-5.2604567616114963E-3</v>
       </c>
       <c r="AJ35" s="19">
-        <f t="shared" ref="AJ35" si="51">(AJ34-AI34)/AI34</f>
+        <f t="shared" ref="AJ35" si="58">(AJ34-AI34)/AI34</f>
         <v>-9.0287630594608533E-3</v>
       </c>
       <c r="AK35" s="19">
-        <f t="shared" ref="AK35" si="52">(AK34-AJ34)/AJ34</f>
+        <f t="shared" ref="AK35" si="59">(AK34-AJ34)/AJ34</f>
         <v>-9.7618117922686452E-3</v>
       </c>
       <c r="AL35" s="19">
-        <f t="shared" ref="AL35" si="53">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="60">(AL34-AK34)/AK34</f>
         <v>-8.9379600420609884E-3</v>
       </c>
     </row>
@@ -7764,115 +8255,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7880,115 +8371,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8112,43 +8603,43 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
         <v>12261000000</v>
@@ -8490,22 +8981,22 @@
         <v>88000000</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1">
         <v>673000000</v>
@@ -8924,64 +9415,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>3866000000</v>
@@ -9040,52 +9531,52 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>7900000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1">
         <v>1669000000</v>
@@ -9156,52 +9647,52 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>7900000</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1">
         <v>1669000000</v>
@@ -9272,70 +9763,70 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1">
         <v>6588000000</v>
@@ -9388,58 +9879,58 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1">
         <v>1829000000</v>
@@ -9460,43 +9951,43 @@
         <v>279000000</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9736,115 +10227,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9968,13 +10459,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>42000000</v>
@@ -10084,73 +10575,73 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>2000000000</v>
@@ -10159,7 +10650,7 @@
         <v>1000000000</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1">
         <v>1231000000</v>
@@ -10200,70 +10691,70 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1">
         <v>3248000000</v>
@@ -10316,49 +10807,49 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1">
         <v>5614000000</v>
@@ -10670,67 +11161,67 @@
         <v>2000000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1">
         <v>3746000000</v>
@@ -10780,70 +11271,70 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1">
         <v>1900000000</v>
@@ -10896,46 +11387,46 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1">
         <v>1027000000</v>
@@ -10950,22 +11441,22 @@
         <v>1731000000</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1">
         <v>229000000</v>
@@ -11012,7 +11503,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>100000</v>
@@ -11021,22 +11512,22 @@
         <v>-100000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>-100000</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>405000000</v>
@@ -11045,19 +11536,19 @@
         <v>635000000</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1">
         <v>1385000000</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R64" s="1">
         <v>2324000000</v>
@@ -11137,22 +11628,22 @@
         <v>-100000</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1">
         <v>-100000</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>405000000</v>
@@ -11161,10 +11652,10 @@
         <v>635000000</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1">
         <v>1385000000</v>
@@ -11244,115 +11735,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11476,43 +11967,43 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>13844000000</v>
@@ -11881,58 +12372,58 @@
         <v>4163000000</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1">
         <v>8629000000</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1">
         <v>-1422000000</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12172,115 +12663,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12288,115 +12779,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12404,13 +12895,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>170500000</v>
@@ -12520,13 +13011,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>24200000</v>
@@ -12636,49 +13127,49 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1">
         <v>-420000000</v>
@@ -12752,70 +13243,70 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1">
         <v>1479000000</v>
@@ -12865,154 +13356,154 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="54">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="61">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.4478649453823238E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.9228057566267947E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.0263747519364958E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.0968074003116824E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.043826214342878E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.0905984662616091E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.8169014084507043E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2.7505877324214577E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.1270511017346458E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.6309060589216229E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.5701341065603479E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.6966696598142126E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.6982134741111075E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.6397601256484696E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>3.7837292580824126E-2</v>
       </c>
     </row>
@@ -13021,13 +13512,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>27800000</v>
@@ -13137,70 +13628,70 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1">
         <v>-1569000000</v>
@@ -13253,13 +13744,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>14700000</v>
@@ -13283,49 +13774,49 @@
         <v>15000000</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1">
         <v>-561000000</v>
@@ -13363,89 +13854,89 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT83" s="64"/>
+      <c r="AS83" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT83" s="65"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>58000000</v>
@@ -13483,8 +13974,8 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="65" t="s">
-        <v>124</v>
+      <c r="AS84" s="66" t="s">
+        <v>122</v>
       </c>
       <c r="AT84" s="66"/>
     </row>
@@ -13493,13 +13984,13 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>310100000</v>
@@ -13603,10 +14094,10 @@
       <c r="AL85" s="1">
         <v>5805000000</v>
       </c>
-      <c r="AS85" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT85" s="47">
+      <c r="AS85" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT85" s="43">
         <f>AL17</f>
         <v>2063000000</v>
       </c>
@@ -13616,40 +14107,40 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1">
         <v>100000</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N86" s="1">
         <v>296000000</v>
@@ -13726,10 +14217,10 @@
       <c r="AL86" s="1">
         <v>-409000000</v>
       </c>
-      <c r="AS86" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT86" s="47">
+      <c r="AS86" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT86" s="43">
         <f>AL56</f>
         <v>2749000000</v>
       </c>
@@ -13739,13 +14230,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>222500000</v>
@@ -13849,10 +14340,10 @@
       <c r="AL87" s="10">
         <v>89035000000</v>
       </c>
-      <c r="AS87" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT87" s="47">
+      <c r="AS87" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT87" s="43">
         <f>AL61</f>
         <v>58521000000</v>
       </c>
@@ -13862,13 +14353,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-89400000</v>
@@ -13972,170 +14463,170 @@
       <c r="AL88" s="1">
         <v>-23886000000</v>
       </c>
-      <c r="AS88" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT88" s="49">
+      <c r="AS88" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT88" s="45">
         <f>AT85/(AT86+AT87)</f>
         <v>3.3670638158968501E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="55">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AL89" si="62">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.11126322339763535</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.13359810714889303</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.14343061733752849</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.11476420052923478</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>6.2883026911803891E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.9797805979780599E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>8.3375442142496203E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.6971514242878558E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>4.393379116041557E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>4.5291355979011322E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>2.9523471919785285E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.8290642969158392E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>4.3603731815306766E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>2.7146130794993832E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>2.7681983409451022E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.0107234966743585E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.5635246827153244E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>4.4286217284143815E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.2664680569347901E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.3373718705614595E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.1640099865565582E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.3670274366269674E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>3.1265683707933749E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>5.4682783336972858E-2</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>6.3167229048863904E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>6.3517845693524255E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>9.7784810126582272E-2</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>9.0372429127292944E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10540050743022834</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.11065375110256431</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.10796769569625564</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.12268573604302509</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.12047208352246935</v>
       </c>
-      <c r="AS89" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT89" s="47">
+      <c r="AS89" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT89" s="43">
         <f>AL27</f>
         <v>10978000000</v>
       </c>
@@ -14145,55 +14636,55 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-190000000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-1063000000</v>
@@ -14255,10 +14746,10 @@
       <c r="AL90" s="1">
         <v>-22038000000</v>
       </c>
-      <c r="AS90" s="46" t="s">
+      <c r="AS90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="47">
+      <c r="AT90" s="43">
         <f>AL25</f>
         <v>83716000000</v>
       </c>
@@ -14268,13 +14759,13 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-15700000</v>
@@ -14378,10 +14869,10 @@
       <c r="AL91" s="1">
         <v>-26456000000</v>
       </c>
-      <c r="AS91" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT91" s="49">
+      <c r="AS91" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT91" s="45">
         <f>AT89/AT90</f>
         <v>0.13113383343685794</v>
       </c>
@@ -14391,43 +14882,43 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1">
         <v>25754000000</v>
@@ -14501,10 +14992,10 @@
       <c r="AL92" s="1">
         <v>44894000000</v>
       </c>
-      <c r="AS92" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT92" s="51">
+      <c r="AS92" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT92" s="45">
         <f>AT88*(1-AT91)</f>
         <v>2.9255278302917614E-2</v>
       </c>
@@ -14514,13 +15005,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>-39900000</v>
@@ -14556,22 +15047,22 @@
         <v>79000000</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1">
         <v>3117000000</v>
@@ -14589,7 +15080,7 @@
         <v>-1502000000</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB93" s="1">
         <v>-394000000</v>
@@ -14613,7 +15104,7 @@
         <v>-98000000</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ93" s="1">
         <v>-1241000000</v>
@@ -14624,8 +15115,8 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="65" t="s">
-        <v>131</v>
+      <c r="AS93" s="66" t="s">
+        <v>129</v>
       </c>
       <c r="AT93" s="66"/>
     </row>
@@ -14634,13 +15125,13 @@
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-145000000</v>
@@ -14744,11 +15235,12 @@
       <c r="AL94" s="10">
         <v>-30311000000</v>
       </c>
-      <c r="AS94" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT94" s="52">
-        <v>4.095E-2</v>
+      <c r="AS94" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14756,73 +15248,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-228000000</v>
@@ -14834,7 +15326,7 @@
         <v>-814000000</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1">
         <v>-1346000000</v>
@@ -14866,12 +15358,12 @@
       <c r="AL95" s="1">
         <v>-9023000000</v>
       </c>
-      <c r="AS95" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT95" s="54" cm="1">
+      <c r="AS95" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT95" s="47" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.92120000000000002</v>
+        <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14879,13 +15371,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>6300000</v>
@@ -14989,10 +15481,10 @@
       <c r="AL96" s="1">
         <v>1841000000</v>
       </c>
-      <c r="AS96" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT96" s="52">
+      <c r="AS96" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15001,16 +15493,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-46700000</v>
@@ -15111,12 +15603,12 @@
       <c r="AL97" s="1">
         <v>-32696000000</v>
       </c>
-      <c r="AS97" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT97" s="51">
+      <c r="AS97" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT97" s="45">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0607659999999998E-2</v>
+        <v>7.9938360000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15124,37 +15616,37 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-15000000</v>
@@ -15169,10 +15661,10 @@
         <v>-13000000</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1">
         <v>-857000000</v>
@@ -15234,8 +15726,8 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="65" t="s">
-        <v>135</v>
+      <c r="AS98" s="66" t="s">
+        <v>133</v>
       </c>
       <c r="AT98" s="66"/>
     </row>
@@ -15244,13 +15736,13 @@
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>19200000</v>
@@ -15265,10 +15757,10 @@
         <v>-11100000</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1">
         <v>179000000</v>
@@ -15286,19 +15778,19 @@
         <v>3107000000</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1">
         <v>235000000</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U99" s="1">
         <v>-18000000</v>
@@ -15354,10 +15846,10 @@
       <c r="AL99" s="1">
         <v>-863000000</v>
       </c>
-      <c r="AS99" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT99" s="47">
+      <c r="AS99" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT99" s="43">
         <f>AT86+AT87</f>
         <v>61270000000</v>
       </c>
@@ -15367,13 +15859,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>25500000</v>
@@ -15477,12 +15969,12 @@
       <c r="AL100" s="10">
         <v>-58876000000</v>
       </c>
-      <c r="AS100" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT100" s="49">
+      <c r="AS100" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT100" s="45">
         <f>AT99/AT103</f>
-        <v>2.3682159261588218E-2</v>
+        <v>2.2939166730247481E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15490,13 +15982,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>-1100000</v>
@@ -15600,12 +16092,12 @@
       <c r="AL101" s="1">
         <v>-141000000</v>
       </c>
-      <c r="AS101" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT101" s="34" cm="1">
+      <c r="AS101" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT101" s="36" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2525909628480</v>
+        <v>2609707578240</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15613,13 +16105,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>25500000</v>
@@ -15723,12 +16215,12 @@
       <c r="AL102" s="10">
         <v>-293000000</v>
       </c>
-      <c r="AS102" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT102" s="49">
+      <c r="AS102" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT102" s="45">
         <f>AT101/AT103</f>
-        <v>0.97631784073841177</v>
+        <v>0.97706083326975257</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15736,13 +16228,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>90500000</v>
@@ -15846,12 +16338,12 @@
       <c r="AL103" s="1">
         <v>14224000000</v>
       </c>
-      <c r="AS103" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT103" s="53">
+      <c r="AS103" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT103" s="48">
         <f>AT99+AT101</f>
-        <v>2587179628480</v>
+        <v>2670977578240</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15859,40 +16351,40 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11">
         <v>3839000000</v>
@@ -15969,492 +16461,617 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="65" t="s">
-        <v>140</v>
+      <c r="AS104" s="66" t="s">
+        <v>138</v>
       </c>
       <c r="AT104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>160</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AJ105" si="63">(B22*(1-$AT$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-9.6919609316303501E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.4417637271214643</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="56">(H106/G106)-1</f>
-        <v>1.0115843270868825</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.41937669376693765</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.56921241050119331</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.1368821292775666</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="56"/>
-        <v>1.1571906354515051</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.29922480620155034</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.48544152744630065</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.51783419023136257</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.38477823647718856</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="56"/>
-        <v>-5.8324415227029469E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.11526909651757444</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="56"/>
-        <v>8.49406798165806E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="56"/>
-        <v>-9.3183952770696354E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.16838055781608352</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="56"/>
-        <v>-0.18786804280377378</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.21097770154373929</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.18658253927375745</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="56"/>
-        <v>-0.13629951166576237</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="56"/>
-        <v>0.38811408468400543</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="57">(AA106/Z106)-1</f>
-        <v>0.11508870383779879</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="58">(AB106/AA106)-1</f>
-        <v>0.19002394577702009</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" ref="AC105" si="59">(AC106/AB106)-1</f>
-        <v>-0.1618294055455135</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" ref="AD105" si="60">(AD106/AC106)-1</f>
-        <v>8.8297526041666741E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" ref="AE105" si="61">(AE106/AD106)-1</f>
-        <v>-0.13497345397442606</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" ref="AF105" si="62">(AF106/AE106)-1</f>
-        <v>7.9789073305670755E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" ref="AG105" si="63">(AG106/AF106)-1</f>
-        <v>0.25602433752301668</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" ref="AH105" si="64">(AH106/AG106)-1</f>
-        <v>2.7853910383070835E-2</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" ref="AI105" si="65">(AI106/AH106)-1</f>
-        <v>0.18628302120798712</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" ref="AJ105" si="66">(AJ106/AI106)-1</f>
-        <v>0.18227914270778878</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" ref="AK105" si="67">(AK106/AJ106)-1</f>
-        <v>0.24061546624220709</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="68">(AL106/AK106)-1</f>
-        <v>0.16092875726148481</v>
-      </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT105" s="22">
+      <c r="E105" s="1">
+        <f t="shared" si="63"/>
+        <v>173039385.54159302</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="63"/>
+        <v>182638176.69262749</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="63"/>
+        <v>395289235.03272974</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="63"/>
+        <v>747690701.89688957</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="63"/>
+        <v>1037116536.8627264</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="63"/>
+        <v>1668663003.4879832</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="63"/>
+        <v>1812749247.4556835</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="63"/>
+        <v>3704370060.6813512</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="63"/>
+        <v>5193283434.4689188</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="63"/>
+        <v>7467931195.9482059</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="63"/>
+        <v>10548022910.793636</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="63"/>
+        <v>7864724951.0248947</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="63"/>
+        <v>10914111472.120026</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="63"/>
+        <v>12654196043.767023</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="63"/>
+        <v>14304804123.46505</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="63"/>
+        <v>9889336948.7314262</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="63"/>
+        <v>11602560251.325912</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="63"/>
+        <v>11239963495.628077</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="63"/>
+        <v>14309876869.415642</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="63"/>
+        <v>15981537818.338192</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="63"/>
+        <v>16957721749.725262</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="63"/>
+        <v>51668936881.838593</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="63"/>
+        <v>21007273950.021503</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="63"/>
+        <v>55501134382.913666</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="63"/>
+        <v>65630334081.895935</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="63"/>
+        <v>68794855917.626266</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="63"/>
+        <v>62377478450.953224</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="63"/>
+        <v>70810456973.577332</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="63"/>
+        <v>89410306034.688705</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="63"/>
+        <v>31373710067.370636</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="63"/>
+        <v>36019621649.386024</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="63"/>
+        <v>45517283315.017441</v>
+      </c>
+      <c r="AK105" s="1">
+        <f>(AK22*(1-$AT$91))+AK77+AK88+AK81</f>
+        <v>50875646901.42865</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <v>63468667566.53447</v>
+      </c>
+      <c r="AM105" s="21">
+        <f>AL105*(1+$AT$106)</f>
+        <v>70059044265.673065</v>
+      </c>
+      <c r="AN105" s="21">
+        <f t="shared" ref="AN105:AQ105" si="64">AM105*(1+$AT$106)</f>
+        <v>77333743902.440979</v>
+      </c>
+      <c r="AO105" s="21">
+        <f t="shared" si="64"/>
+        <v>85363824309.24205</v>
+      </c>
+      <c r="AP105" s="21">
+        <f t="shared" si="64"/>
+        <v>94227721728.976532</v>
+      </c>
+      <c r="AQ105" s="21">
+        <f t="shared" si="64"/>
+        <v>104012016964.80403</v>
+      </c>
+      <c r="AR105" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS105" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT105" s="50">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.9391524718187834E-2</v>
+        <v>7.8775732338547899E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>133100000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>120200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>293500000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>590400000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>838000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1315000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1495000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>3225000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>4190000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>6224000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>9447000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>13082000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>12319000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>13739000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>14906000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>13517000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>15793000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>12826000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>15532000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>18430000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>15918000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>22096000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>24639000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>29321000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>24576000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>26746000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>23136000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>24982000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>31378000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>32252000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>38260000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>45234000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>56118000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>65149000000</v>
-      </c>
-      <c r="AM106" s="23">
-        <f>AL106*(1+$AT$106)</f>
-        <v>71871032797.105103</v>
-      </c>
-      <c r="AN106" s="23">
-        <f t="shared" ref="AN106:AQ106" si="69">AM106*(1+$AT$106)</f>
-        <v>79286640705.499054</v>
-      </c>
-      <c r="AO106" s="23">
-        <f t="shared" si="69"/>
-        <v>87467386368.435608</v>
-      </c>
-      <c r="AP106" s="23">
-        <f t="shared" si="69"/>
-        <v>96492216217.638016</v>
-      </c>
-      <c r="AQ106" s="23">
-        <f t="shared" si="69"/>
-        <v>106448222327.94392</v>
-      </c>
-      <c r="AR106" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS106" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT106" s="26">
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AL106" si="65">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="65"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="65"/>
+        <v>-9.6919609316303501E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="65"/>
+        <v>1.4417637271214643</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="65"/>
+        <v>1.0115843270868825</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.41937669376693765</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.56921241050119331</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.1368821292775666</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="65"/>
+        <v>1.1571906354515051</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.29922480620155034</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.48544152744630065</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.51783419023136257</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.38477823647718856</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="65"/>
+        <v>-5.8324415227029469E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.11526909651757444</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="65"/>
+        <v>8.49406798165806E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="65"/>
+        <v>-9.3183952770696354E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.16838055781608352</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="65"/>
+        <v>-0.18786804280377378</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.21097770154373929</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.18658253927375745</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="65"/>
+        <v>-0.13629951166576237</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.38811408468400543</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.11508870383779879</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.19002394577702009</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="65"/>
+        <v>-0.1618294055455135</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="65"/>
+        <v>8.8297526041666741E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="65"/>
+        <v>-0.13497345397442606</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="65"/>
+        <v>7.9789073305670755E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.25602433752301668</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="65"/>
+        <v>2.7853910383070835E-2</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.18628302120798712</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.18227914270778878</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.24061546624220709</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="65"/>
+        <v>0.16092875726148481</v>
+      </c>
+      <c r="AM106" s="56">
+        <v>64355000000</v>
+      </c>
+      <c r="AN106" s="56">
+        <v>75993000000</v>
+      </c>
+      <c r="AO106" s="56">
+        <v>87989000000</v>
+      </c>
+      <c r="AP106" s="56">
+        <v>116100000000</v>
+      </c>
+      <c r="AQ106" s="56">
+        <v>137400000000</v>
+      </c>
+      <c r="AR106" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS106" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT106" s="52">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>0.10317937032195598</v>
+        <v>0.1038366953620049</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="24"/>
-      <c r="AN107" s="24"/>
-      <c r="AO107" s="24"/>
-      <c r="AP107" s="24"/>
-      <c r="AQ107" s="27">
+      <c r="A107" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>133100000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>120200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>293500000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>590400000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>838000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1315000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1495000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3225000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>4190000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>6224000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>9447000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>13082000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>12319000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>13739000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>14906000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>13517000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>15793000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>12826000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>15532000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>18430000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>15918000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>22096000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>24639000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>29321000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>24576000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>26746000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>23136000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>24982000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>31378000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>32252000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>38260000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>45234000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>56118000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>65149000000</v>
+      </c>
+      <c r="AM107" s="22"/>
+      <c r="AN107" s="22"/>
+      <c r="AO107" s="22"/>
+      <c r="AP107" s="22"/>
+      <c r="AQ107" s="61">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>2006000538713.6667</v>
-      </c>
-      <c r="AR107" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS107" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT107" s="30">
+        <v>2618932255787.1641</v>
+      </c>
+      <c r="AR107" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS107" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="27">
-        <f t="shared" ref="AM108:AO108" si="70">AM107+AM106</f>
-        <v>71871032797.105103</v>
-      </c>
-      <c r="AN108" s="27">
-        <f t="shared" si="70"/>
-        <v>79286640705.499054</v>
-      </c>
-      <c r="AO108" s="27">
-        <f t="shared" si="70"/>
-        <v>87467386368.435608</v>
-      </c>
-      <c r="AP108" s="27">
+      <c r="AM108" s="61">
+        <f t="shared" ref="AM108:AO108" si="66">AM107+AM106</f>
+        <v>64355000000</v>
+      </c>
+      <c r="AN108" s="61">
+        <f t="shared" si="66"/>
+        <v>75993000000</v>
+      </c>
+      <c r="AO108" s="61">
+        <f t="shared" si="66"/>
+        <v>87989000000</v>
+      </c>
+      <c r="AP108" s="61">
         <f>AP107+AP106</f>
-        <v>96492216217.638016</v>
-      </c>
-      <c r="AQ108" s="27">
+        <v>116100000000</v>
+      </c>
+      <c r="AQ108" s="61">
         <f>AQ107+AQ106</f>
-        <v>2112448761041.6106</v>
-      </c>
-      <c r="AR108" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS108" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT108" s="32">
+        <v>2756332255787.1641</v>
+      </c>
+      <c r="AR108" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS108" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="52">
         <f>AT105</f>
-        <v>7.9391524718187834E-2</v>
+        <v>7.8775732338547899E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN109" s="62"/>
+      <c r="AM109" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN109" s="63"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN110" s="34">
+      <c r="AM110" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN110" s="36">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1717027586017.1787</v>
+        <v>2167349063089.0413</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN111" s="34">
+      <c r="AM111" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN111" s="36">
         <f>AL40</f>
         <v>104749000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN112" s="34">
+      <c r="AM112" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN112" s="36">
         <f>AT99</f>
         <v>61270000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN113" s="34">
+      <c r="AM113" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN113" s="36">
         <f>AN110+AN111-AN112</f>
-        <v>1760506586017.1787</v>
+        <v>2210828063089.041</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN114" s="45">
+      <c r="AM114" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN114" s="35">
         <f>AL34*(1+(5*AR16))</f>
         <v>7254679754.7058077</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN115" s="56">
+      <c r="AM115" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN115" s="38">
         <f>AN113/AN114</f>
-        <v>242.67185396780769</v>
+        <v>304.74509390369286</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN116" s="55" cm="1">
+      <c r="AM116" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN116" s="39" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
-        <v>339.71</v>
+        <v>350.98</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN117" s="37">
+      <c r="AM117" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN117" s="40">
         <f>(AN115/AN116)-1</f>
-        <v>-0.28564995446761143</v>
+        <v>-0.13173088522510445</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN118" s="38" t="str">
+      <c r="AM118" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN118" s="41" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16545,8 +17162,9 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/789019/000156459022026876/0001564590-22-026876-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/789019/000156459022026876/0001564590-22-026876-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:MSFT/explorer/revenue_proj" xr:uid="{C9F4B2A4-E0C2-2343-9571-21EA1486E941}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{81B04FC1-53AD-C643-A076-210FE77F9CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC8906-BBD2-7C4B-9AB9-03011F76D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E76CEC2-C9CC-1E43-8730-CAA15D38228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,16 +564,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -702,6 +705,13 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -909,11 +919,6 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,71 +946,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,15 +1159,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3398692810457512E-2"/>
-          <c:y val="0.14371731594775142"/>
-          <c:w val="0.84647058823529397"/>
-          <c:h val="0.63161727233075471"/>
+          <c:x val="0.11487684729064039"/>
+          <c:y val="0.15740360808550574"/>
+          <c:w val="0.79448275862068951"/>
+          <c:h val="0.59290774478541064"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1153,10 +1218,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1267,16 +1332,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AQ$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>197500000</c:v>
                 </c:pt>
@@ -1387,13 +1467,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>198270000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211900000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>235100000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>264400000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>308800000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>323700000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99EB-DE4E-A978-CF49D39F7874}"/>
+              <c16:uniqueId val="{00000000-0AD5-BA47-A49A-A473843AEA42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1446,10 +1541,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1560,16 +1655,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AQ$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>39300000</c:v>
                 </c:pt>
@@ -1680,13 +1790,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>72738000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72361000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81894000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92916000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>109800000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99EB-DE4E-A978-CF49D39F7874}"/>
+              <c16:uniqueId val="{00000001-0AD5-BA47-A49A-A473843AEA42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1739,10 +1864,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -1853,16 +1978,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AQ$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1973,13 +2113,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65149000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58823000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66878000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81161000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95302000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>130800000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99EB-DE4E-A978-CF49D39F7874}"/>
+              <c16:uniqueId val="{00000002-0AD5-BA47-A49A-A473843AEA42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1991,13 +2146,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1601638928"/>
-        <c:axId val="1575761456"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1870105728"/>
+        <c:axId val="1851657808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1601638928"/>
+        <c:axId val="1870105728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2180,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2037,7 +2192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575761456"/>
+        <c:crossAx val="1851657808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +2200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1575761456"/>
+        <c:axId val="1851657808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,7 +2248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1601638928"/>
+        <c:crossAx val="1870105728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2111,10 +2266,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34490432813545363"/>
-          <c:y val="0.90816762700580811"/>
-          <c:w val="0.31019134372909268"/>
-          <c:h val="5.9762402148711001E-2"/>
+          <c:x val="0.34676751612944939"/>
+          <c:y val="0.88545701887262596"/>
+          <c:w val="0.31171937990509807"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2221,7 +2376,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2459,7 +2614,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2694,22 +2848,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE44165-6BE4-D8D0-5961-F4B8945AC756}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281ABB17-BF88-4C38-8233-24F05F4803C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,38 +2891,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2933,38 +3087,38 @@
     <v>Powered by Refinitiv</v>
     <v>366.78</v>
     <v>213.43100000000001</v>
-    <v>0.90949999999999998</v>
-    <v>5.87</v>
-    <v>1.7009E-2</v>
-    <v>-12.98</v>
-    <v>-3.6982000000000001E-2</v>
+    <v>0.89859999999999995</v>
+    <v>1.21</v>
+    <v>3.6649999999999999E-3</v>
+    <v>-1</v>
+    <v>-3.0180000000000003E-3</v>
     <v>USD</v>
-    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices and solutions. It operates through three segments. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Commercial comprising Office (including Office 365 subscriptions), Exchange, SharePoint, Microsoft Teams, Office 365 Security and Compliance, and Microsoft Viva; Office Consumer, LinkedIn, and Dynamics business solutions. Intelligent Cloud segment consists of the Company’s public, private, and hybrid server products and cloud services, including Azure and other cloud services; SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses, and Nuance and GitHub. More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>351.89</v>
+    <v>336.88</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.999989316406</v>
+    <v>45218.999989860939</v>
     <v>4</v>
-    <v>345.07</v>
-    <v>2609707578240</v>
+    <v>330.91</v>
+    <v>2461629408480</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>347.11</v>
-    <v>37.4069</v>
-    <v>345.11</v>
-    <v>350.98</v>
-    <v>338</v>
-    <v>7435488000</v>
+    <v>332.15</v>
+    <v>34.085799999999999</v>
+    <v>330.11</v>
+    <v>331.32</v>
+    <v>330.32</v>
+    <v>7429764000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>41637739</v>
-    <v>29123265</v>
+    <v>25052071</v>
+    <v>21865527</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -3585,22 +3739,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN101" sqref="AN101"/>
+      <selection pane="bottomRight" activeCell="AS44" sqref="AS44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="38" width="15" customWidth="1"/>
-    <col min="39" max="45" width="21.1640625" customWidth="1"/>
-    <col min="46" max="46" width="21.83203125" customWidth="1"/>
-    <col min="47" max="47" width="20" customWidth="1"/>
+    <col min="39" max="43" width="21.1640625" customWidth="1"/>
+    <col min="44" max="47" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3718,19 +3871,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="24">
+      <c r="AM1" s="21">
         <v>2023</v>
       </c>
-      <c r="AN1" s="24">
+      <c r="AN1" s="21">
         <v>2024</v>
       </c>
-      <c r="AO1" s="24">
+      <c r="AO1" s="21">
         <v>2025</v>
       </c>
-      <c r="AP1" s="24">
+      <c r="AP1" s="21">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="24">
+      <c r="AQ1" s="21">
         <v>2027</v>
       </c>
     </row>
@@ -3981,8 +4134,8 @@
         <v>198270000000</v>
       </c>
       <c r="AM3" s="20">
-        <f>211200000000</f>
-        <v>211200000000</v>
+        <f>211900000000</f>
+        <v>211900000000</v>
       </c>
       <c r="AN3" s="20">
         <v>235100000000</v>
@@ -3996,16 +4149,16 @@
       <c r="AQ3" s="20">
         <v>323700000000</v>
       </c>
-      <c r="AR3" s="25" t="s">
+      <c r="AR3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="AS3" s="26" t="s">
+      <c r="AS3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="26" t="s">
+      <c r="AT3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="26" t="s">
+      <c r="AU3" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4014,157 +4167,157 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="67">
+      <c r="C4" s="42">
         <f>(C3/B3)-1</f>
         <v>0.75139240506329119</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="42">
         <f>(D3/C3)-1</f>
         <v>0.70800809482509397</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="42">
         <f>(E3/D3)-1</f>
         <v>0.36002031144211233</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="42">
         <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
         <v>0.47280647168637202</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>0.5577150583065742</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>0.49652815449712495</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>0.36042338782759997</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="42">
         <f t="shared" si="0"/>
         <v>0.23874233946176382</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>0.27704882770488282</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="42">
         <f t="shared" si="0"/>
         <v>0.46050193700522146</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>0.30988351977857231</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="42">
         <f t="shared" si="0"/>
         <v>0.27522451135763348</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="42">
         <f t="shared" si="0"/>
         <v>0.36336647334990335</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="42">
         <f t="shared" si="0"/>
         <v>0.16250569706790907</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="42">
         <f t="shared" si="0"/>
         <v>0.10193413486670155</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="42">
         <f t="shared" si="0"/>
         <v>0.12132352941176472</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="42">
         <f t="shared" si="0"/>
         <v>0.13474352194606021</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="42">
         <f t="shared" si="0"/>
         <v>0.14440612669711372</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="42">
         <f t="shared" si="0"/>
         <v>8.0168318175648068E-2</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="42">
         <f t="shared" si="0"/>
         <v>0.11294862772695291</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="42">
         <f t="shared" si="0"/>
         <v>0.15446456799602548</v>
       </c>
-      <c r="X4" s="67">
+      <c r="X4" s="42">
         <f t="shared" si="0"/>
         <v>0.18187864324556946</v>
       </c>
-      <c r="Y4" s="67">
+      <c r="Y4" s="42">
         <f t="shared" si="0"/>
         <v>-3.2820258192651441E-2</v>
       </c>
-      <c r="Z4" s="67">
+      <c r="Z4" s="42">
         <f t="shared" si="0"/>
         <v>6.9254068484008391E-2</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="AA4" s="42">
         <f t="shared" si="0"/>
         <v>0.11937455988733126</v>
       </c>
-      <c r="AB4" s="67">
+      <c r="AB4" s="42">
         <f t="shared" si="0"/>
         <v>5.4044007263057026E-2</v>
       </c>
-      <c r="AC4" s="67">
+      <c r="AC4" s="42">
         <f t="shared" si="0"/>
         <v>5.5966252051598442E-2</v>
       </c>
-      <c r="AD4" s="67">
+      <c r="AD4" s="42">
         <f t="shared" si="0"/>
         <v>0.11540289534868786</v>
       </c>
-      <c r="AE4" s="67">
+      <c r="AE4" s="42">
         <f t="shared" si="0"/>
         <v>7.7700874091647165E-2</v>
       </c>
-      <c r="AF4" s="67">
+      <c r="AF4" s="42">
         <f t="shared" ref="AF4" si="1">(AF3/AE3)-1</f>
         <v>-8.8266723658901425E-2</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AG4" s="42">
         <f t="shared" ref="AG4" si="2">(AG3/AF3)-1</f>
         <v>5.4266291608063844E-2</v>
       </c>
-      <c r="AH4" s="67">
+      <c r="AH4" s="42">
         <f t="shared" ref="AH4" si="3">(AH3/AG3)-1</f>
         <v>0.22690383546414683</v>
       </c>
-      <c r="AI4" s="67">
+      <c r="AI4" s="42">
         <f t="shared" ref="AI4" si="4">(AI3/AH3)-1</f>
         <v>0.14029539688292858</v>
       </c>
-      <c r="AJ4" s="67">
+      <c r="AJ4" s="42">
         <f t="shared" ref="AJ4" si="5">(AJ3/AI3)-1</f>
         <v>0.13645574247276371</v>
       </c>
-      <c r="AK4" s="67">
+      <c r="AK4" s="42">
         <f t="shared" ref="AK4" si="6">(AK3/AJ3)-1</f>
         <v>0.17531727441177503</v>
       </c>
-      <c r="AL4" s="67">
+      <c r="AL4" s="42">
         <f t="shared" ref="AL4:AQ4" si="7">(AL3/AK3)-1</f>
         <v>0.17956070629670173</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="7"/>
-        <v>6.52141019821455E-2</v>
+        <v>6.8744641145912055E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="7"/>
-        <v>0.1131628787878789</v>
+        <v>0.10948560641812177</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="7"/>
@@ -4178,19 +4331,19 @@
         <f t="shared" si="7"/>
         <v>4.8251295336787514E-2</v>
       </c>
-      <c r="AR4" s="27">
+      <c r="AR4" s="24">
         <f>(AL4+AK4+AJ4)/3</f>
         <v>0.16377790772708015</v>
       </c>
-      <c r="AS4" s="27">
+      <c r="AS4" s="24">
         <f>(AL20+AK20+AJ20)/3</f>
         <v>0.20007529474142496</v>
       </c>
-      <c r="AT4" s="27">
+      <c r="AT4" s="24">
         <f>(AL29+AK29+AJ29)/3</f>
         <v>0.23310133884414527</v>
       </c>
-      <c r="AU4" s="27">
+      <c r="AU4" s="24">
         <f>(AL106+AK106+AJ106)/3</f>
         <v>0.19460778873716023</v>
       </c>
@@ -4426,16 +4579,16 @@
       <c r="AL6" s="10">
         <v>135620000000</v>
       </c>
-      <c r="AR6" s="25" t="s">
+      <c r="AR6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AS6" s="26" t="s">
+      <c r="AS6" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="26" t="s">
+      <c r="AT6" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="26" t="s">
+      <c r="AU6" s="67" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4554,21 +4707,21 @@
       <c r="AL7" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR7" s="27">
+      <c r="AR7" s="24">
         <f>AL7</f>
         <v>0.68400000000000005</v>
       </c>
-      <c r="AS7" s="28">
-        <f>AL21</f>
-        <v>0.50560000000000005</v>
-      </c>
-      <c r="AT7" s="28">
-        <f>AL30</f>
-        <v>0.3669</v>
-      </c>
-      <c r="AU7" s="28">
-        <f>AL107/AL3</f>
-        <v>0.32858727997175569</v>
+      <c r="AS7" s="25">
+        <f>AM21</f>
+        <v>0.48890986314299195</v>
+      </c>
+      <c r="AT7" s="25">
+        <f>AM30</f>
+        <v>0.34148655025955638</v>
+      </c>
+      <c r="AU7" s="25">
+        <f>AM107/AM3</f>
+        <v>0.27759792354884377</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4839,16 +4992,16 @@
         <f t="shared" si="8"/>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AR9" s="25" t="s">
+      <c r="AR9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AS9" s="26" t="s">
+      <c r="AS9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="26" t="s">
+      <c r="AT9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="26" t="s">
+      <c r="AU9" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4967,19 +5120,19 @@
       <c r="AL10" s="1">
         <v>5900000000</v>
       </c>
-      <c r="AR10" s="27">
+      <c r="AR10" s="24">
         <f>AL9</f>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AS10" s="28">
+      <c r="AS10" s="25">
         <f>AL13</f>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AT10" s="28">
+      <c r="AT10" s="25">
         <f>AL80</f>
         <v>3.7837292580824126E-2</v>
       </c>
-      <c r="AU10" s="28">
+      <c r="AU10" s="25">
         <f>AL89</f>
         <v>0.12047208352246935</v>
       </c>
@@ -5215,16 +5368,16 @@
       <c r="AL12" s="1">
         <v>27725000000</v>
       </c>
-      <c r="AR12" s="25" t="s">
+      <c r="AR12" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="AS12" s="26" t="s">
+      <c r="AS12" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="26" t="s">
+      <c r="AT12" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="26" t="s">
+      <c r="AU12" s="23" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5380,15 +5533,15 @@
         <f t="shared" si="9"/>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AR13" s="27">
+      <c r="AR13" s="24">
         <f>AL28/AL72</f>
         <v>0.43675469250999749</v>
       </c>
-      <c r="AS13" s="28">
+      <c r="AS13" s="25">
         <f>AL28/AL54</f>
         <v>0.19936958666812848</v>
       </c>
-      <c r="AT13" s="28">
+      <c r="AT13" s="25">
         <f>AL22/(AL72+AL56+AL61)</f>
         <v>0.36601671553737292</v>
       </c>
@@ -5628,16 +5781,16 @@
       <c r="AL15" s="1">
         <v>52237000000</v>
       </c>
-      <c r="AR15" s="25" t="s">
+      <c r="AR15" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AS15" s="26" t="s">
+      <c r="AS15" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="AT15" s="26" t="s">
+      <c r="AT15" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="AU15" s="26" t="s">
+      <c r="AU15" s="23" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5760,17 +5913,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="30">
-        <f>AT101/AL3</f>
-        <v>13.162392587078227</v>
-      </c>
-      <c r="AT16" s="30">
-        <f>AT101/AL28</f>
-        <v>35.878187168192689</v>
-      </c>
-      <c r="AU16" s="31">
-        <f>AT101/AL107</f>
-        <v>40.057523188997529</v>
+      <c r="AS16" s="27">
+        <f>AT102/AL3</f>
+        <v>12.41554147616886</v>
+      </c>
+      <c r="AT16" s="27">
+        <f>AT102/AL28</f>
+        <v>33.842412610739913</v>
+      </c>
+      <c r="AU16" s="28">
+        <f>AT102/AL107</f>
+        <v>37.784607721991129</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6004,16 +6157,16 @@
       <c r="AL18" s="1">
         <v>14460000000</v>
       </c>
-      <c r="AR18" s="25" t="s">
+      <c r="AR18" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AS18" s="26" t="s">
+      <c r="AS18" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="AT18" s="26" t="s">
+      <c r="AT18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="AU18" s="26" t="s">
+      <c r="AU18" s="23" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6132,36 +6285,36 @@
       <c r="AL19" s="10">
         <v>100239000000</v>
       </c>
-      <c r="AM19" s="58">
-        <v>101500000000</v>
-      </c>
-      <c r="AN19" s="58">
+      <c r="AM19" s="38">
+        <v>103600000000</v>
+      </c>
+      <c r="AN19" s="38">
         <v>116700000000</v>
       </c>
-      <c r="AO19" s="58">
+      <c r="AO19" s="38">
         <v>132700000000</v>
       </c>
-      <c r="AP19" s="58">
+      <c r="AP19" s="38">
         <v>164500000000</v>
       </c>
-      <c r="AQ19" s="58">
+      <c r="AQ19" s="38">
         <v>191800000000</v>
       </c>
-      <c r="AR19" s="29">
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
       </c>
-      <c r="AS19" s="30">
-        <f>AT101/AM3</f>
-        <v>12.356569972727273</v>
-      </c>
-      <c r="AT19" s="30">
-        <f>AT101/AM28</f>
-        <v>36.127020477594584</v>
-      </c>
-      <c r="AU19" s="31">
-        <f>AT101/AM106</f>
-        <v>40.551745446973818</v>
+      <c r="AS19" s="27">
+        <f>AT102/AM3</f>
+        <v>11.616939162246343</v>
+      </c>
+      <c r="AT19" s="27">
+        <f>AT102/AM28</f>
+        <v>34.018731201614131</v>
+      </c>
+      <c r="AU19" s="28">
+        <f>AT102/AM107</f>
+        <v>41.848076576849195</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,11 +6468,11 @@
       </c>
       <c r="AM20" s="16">
         <f t="shared" ref="AM20" si="23">(AM19/AL19)-1</f>
-        <v>1.2579933957840739E-2</v>
+        <v>3.352986362593402E-2</v>
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="24">(AN19/AM19)-1</f>
-        <v>0.14975369458128074</v>
+        <v>0.12644787644787647</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="25">(AO19/AN19)-1</f>
@@ -6336,7 +6489,7 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6451,30 +6604,33 @@
       <c r="AL21" s="2">
         <v>0.50560000000000005</v>
       </c>
-      <c r="AM21" s="60">
+      <c r="AM21" s="40">
         <f>AM19/AM3</f>
-        <v>0.48058712121212122</v>
-      </c>
-      <c r="AN21" s="60">
+        <v>0.48890986314299195</v>
+      </c>
+      <c r="AN21" s="40">
         <f t="shared" ref="AN21:AQ21" si="28">AN19/AN3</f>
         <v>0.49638451722671206</v>
       </c>
-      <c r="AO21" s="60">
+      <c r="AO21" s="40">
         <f t="shared" si="28"/>
         <v>0.50189107413010592</v>
       </c>
-      <c r="AP21" s="60">
+      <c r="AP21" s="40">
         <f t="shared" si="28"/>
         <v>0.53270725388601037</v>
       </c>
-      <c r="AQ21" s="60">
+      <c r="AQ21" s="40">
         <f t="shared" si="28"/>
         <v>0.59252394192153224</v>
       </c>
-      <c r="AT21" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU21" s="26" t="s">
+      <c r="AS21" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU21" s="23" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6593,13 +6749,17 @@
       <c r="AL22" s="10">
         <v>83383000000</v>
       </c>
-      <c r="AT22" s="62">
-        <f>AL98/AT101*-1</f>
-        <v>6.9490544270980493E-3</v>
-      </c>
-      <c r="AU22" s="57">
-        <f>AL107/AT101</f>
-        <v>2.4964099634464339E-2</v>
+      <c r="AS22" s="24">
+        <f>SUM(AM29:AQ29)/5</f>
+        <v>0.11461943491632776</v>
+      </c>
+      <c r="AT22" s="41">
+        <f>AL98/AT102*-1</f>
+        <v>7.3670715573705909E-3</v>
+      </c>
+      <c r="AU22" s="37">
+        <f>AM107/AT102</f>
+        <v>2.3895960861274348E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7297,19 +7457,19 @@
       <c r="AL28" s="11">
         <v>72738000000</v>
       </c>
-      <c r="AM28" s="32">
-        <v>72237000000</v>
-      </c>
-      <c r="AN28" s="32">
+      <c r="AM28" s="29">
+        <v>72361000000</v>
+      </c>
+      <c r="AN28" s="29">
         <v>81894000000</v>
       </c>
-      <c r="AO28" s="32">
+      <c r="AO28" s="29">
         <v>92916000000</v>
       </c>
-      <c r="AP28" s="32">
+      <c r="AP28" s="29">
         <v>109800000000</v>
       </c>
-      <c r="AQ28" s="32">
+      <c r="AQ28" s="29">
         <v>124100000000</v>
       </c>
     </row>
@@ -7464,11 +7624,11 @@
       </c>
       <c r="AM29" s="16">
         <f t="shared" ref="AM29" si="42">(AM28/AL28)-1</f>
-        <v>-6.8877340592262692E-3</v>
+        <v>-5.1829855096373612E-3</v>
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="43">(AN28/AM28)-1</f>
-        <v>0.13368495369409028</v>
+        <v>0.13174223684028696</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="44">(AO28/AN28)-1</f>
@@ -7600,23 +7760,23 @@
       <c r="AL30" s="2">
         <v>0.3669</v>
       </c>
-      <c r="AM30" s="33">
+      <c r="AM30" s="30">
         <f>AM28/AM3</f>
-        <v>0.34203125000000001</v>
-      </c>
-      <c r="AN30" s="33">
+        <v>0.34148655025955638</v>
+      </c>
+      <c r="AN30" s="30">
         <f t="shared" ref="AN30:AQ30" si="47">AN28/AN3</f>
         <v>0.34833687792428752</v>
       </c>
-      <c r="AO30" s="33">
+      <c r="AO30" s="30">
         <f t="shared" si="47"/>
         <v>0.35142208774583966</v>
       </c>
-      <c r="AP30" s="33">
+      <c r="AP30" s="30">
         <f t="shared" si="47"/>
         <v>0.35556994818652848</v>
       </c>
-      <c r="AQ30" s="33">
+      <c r="AQ30" s="30">
         <f t="shared" si="47"/>
         <v>0.38337967253629907</v>
       </c>
@@ -7736,19 +7896,19 @@
       <c r="AL31" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AM31" s="59">
+      <c r="AM31" s="39">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AN31" s="59">
+      <c r="AN31" s="39">
         <v>11.01</v>
       </c>
-      <c r="AO31" s="59">
+      <c r="AO31" s="39">
         <v>12.5</v>
       </c>
-      <c r="AP31" s="59">
+      <c r="AP31" s="39">
         <v>14.77</v>
       </c>
-      <c r="AQ31" s="59">
+      <c r="AQ31" s="39">
         <v>16.690000000000001</v>
       </c>
     </row>
@@ -7868,7 +8028,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -7983,8 +8143,12 @@
       <c r="AL33" s="1">
         <v>7496000000</v>
       </c>
+      <c r="AM33" s="1" cm="1">
+        <f t="array" ref="AM33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>7429764000</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -8099,8 +8263,12 @@
       <c r="AL34" s="1">
         <v>7540000000</v>
       </c>
+      <c r="AM34" s="1" cm="1">
+        <f t="array" ref="AM34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>7429764000</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
@@ -8246,11 +8414,15 @@
         <v>-9.7618117922686452E-3</v>
       </c>
       <c r="AL35" s="19">
-        <f t="shared" ref="AL35" si="60">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35:AM35" si="60">(AL34-AK34)/AK34</f>
         <v>-8.9379600420609884E-3</v>
       </c>
+      <c r="AM35" s="19">
+        <f t="shared" si="60"/>
+        <v>-1.4620159151193635E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -8366,7 +8538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -8482,7 +8654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -8598,7 +8770,7 @@
         <v>13931000000</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -8714,7 +8886,7 @@
         <v>90818000000</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -8830,7 +9002,7 @@
         <v>104749000000</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -8946,7 +9118,7 @@
         <v>44261000000</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -9062,7 +9234,7 @@
         <v>3742000000</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -9178,7 +9350,7 @@
         <v>16932000000</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -9294,7 +9466,7 @@
         <v>169684000000</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -9410,7 +9582,7 @@
         <v>87546000000</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -9526,7 +9698,7 @@
         <v>67524000000</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -9642,7 +9814,7 @@
         <v>11298000000</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -13739,7 +13911,7 @@
         <v>-6834000000</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13854,12 +14026,8 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT83" s="65"/>
     </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13974,12 +14142,18 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT84" s="66"/>
+      <c r="AM84" s="44"/>
+      <c r="AN84" s="44"/>
+      <c r="AO84" s="44"/>
+      <c r="AP84" s="44"/>
+      <c r="AQ84" s="44"/>
+      <c r="AR84" s="44"/>
+      <c r="AS84" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT84" s="73"/>
     </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -14094,13 +14268,16 @@
       <c r="AL85" s="1">
         <v>5805000000</v>
       </c>
-      <c r="AS85" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT85" s="43">
-        <f>AL17</f>
-        <v>2063000000</v>
-      </c>
+      <c r="AM85" s="44"/>
+      <c r="AN85" s="44"/>
+      <c r="AO85" s="44"/>
+      <c r="AP85" s="44"/>
+      <c r="AQ85" s="44"/>
+      <c r="AR85" s="44"/>
+      <c r="AS85" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT85" s="74"/>
     </row>
     <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14217,12 +14394,18 @@
       <c r="AL86" s="1">
         <v>-409000000</v>
       </c>
-      <c r="AS86" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT86" s="43">
-        <f>AL56</f>
-        <v>2749000000</v>
+      <c r="AM86" s="44"/>
+      <c r="AN86" s="44"/>
+      <c r="AO86" s="44"/>
+      <c r="AP86" s="44"/>
+      <c r="AQ86" s="44"/>
+      <c r="AR86" s="44"/>
+      <c r="AS86" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT86" s="45">
+        <f>AL17</f>
+        <v>2063000000</v>
       </c>
     </row>
     <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14340,12 +14523,18 @@
       <c r="AL87" s="10">
         <v>89035000000</v>
       </c>
-      <c r="AS87" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT87" s="43">
-        <f>AL61</f>
-        <v>58521000000</v>
+      <c r="AM87" s="44"/>
+      <c r="AN87" s="44"/>
+      <c r="AO87" s="44"/>
+      <c r="AP87" s="44"/>
+      <c r="AQ87" s="44"/>
+      <c r="AR87" s="44"/>
+      <c r="AS87" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT87" s="45">
+        <f>AL56</f>
+        <v>2749000000</v>
       </c>
     </row>
     <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14463,12 +14652,18 @@
       <c r="AL88" s="1">
         <v>-23886000000</v>
       </c>
-      <c r="AS88" s="44" t="s">
-        <v>125</v>
+      <c r="AM88" s="44"/>
+      <c r="AN88" s="44"/>
+      <c r="AO88" s="44"/>
+      <c r="AP88" s="44"/>
+      <c r="AQ88" s="44"/>
+      <c r="AR88" s="44"/>
+      <c r="AS88" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="AT88" s="45">
-        <f>AT85/(AT86+AT87)</f>
-        <v>3.3670638158968501E-2</v>
+        <f>AL61</f>
+        <v>58521000000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14623,12 +14818,18 @@
         <f t="shared" si="62"/>
         <v>0.12047208352246935</v>
       </c>
-      <c r="AS89" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT89" s="43">
-        <f>AL27</f>
-        <v>10978000000</v>
+      <c r="AM89" s="44"/>
+      <c r="AN89" s="44"/>
+      <c r="AO89" s="44"/>
+      <c r="AP89" s="44"/>
+      <c r="AQ89" s="44"/>
+      <c r="AR89" s="44"/>
+      <c r="AS89" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT89" s="46">
+        <f>AT86/(AT87+AT88)</f>
+        <v>3.3670638158968501E-2</v>
       </c>
     </row>
     <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14746,12 +14947,18 @@
       <c r="AL90" s="1">
         <v>-22038000000</v>
       </c>
-      <c r="AS90" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT90" s="43">
-        <f>AL25</f>
-        <v>83716000000</v>
+      <c r="AM90" s="44"/>
+      <c r="AN90" s="44"/>
+      <c r="AO90" s="44"/>
+      <c r="AP90" s="44"/>
+      <c r="AQ90" s="44"/>
+      <c r="AR90" s="44"/>
+      <c r="AS90" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT90" s="45">
+        <f>AL27</f>
+        <v>10978000000</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14869,12 +15076,18 @@
       <c r="AL91" s="1">
         <v>-26456000000</v>
       </c>
-      <c r="AS91" s="44" t="s">
-        <v>127</v>
+      <c r="AM91" s="44"/>
+      <c r="AN91" s="44"/>
+      <c r="AO91" s="44"/>
+      <c r="AP91" s="44"/>
+      <c r="AQ91" s="44"/>
+      <c r="AR91" s="44"/>
+      <c r="AS91" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="AT91" s="45">
-        <f>AT89/AT90</f>
-        <v>0.13113383343685794</v>
+        <f>AL25</f>
+        <v>83716000000</v>
       </c>
     </row>
     <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14992,15 +15205,21 @@
       <c r="AL92" s="1">
         <v>44894000000</v>
       </c>
-      <c r="AS92" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT92" s="45">
-        <f>AT88*(1-AT91)</f>
-        <v>2.9255278302917614E-2</v>
+      <c r="AM92" s="44"/>
+      <c r="AN92" s="44"/>
+      <c r="AO92" s="44"/>
+      <c r="AP92" s="44"/>
+      <c r="AQ92" s="44"/>
+      <c r="AR92" s="44"/>
+      <c r="AS92" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT92" s="46">
+        <f>AT90/AT91</f>
+        <v>0.13113383343685794</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -15115,12 +15334,21 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT93" s="66"/>
+      <c r="AM93" s="44"/>
+      <c r="AN93" s="44"/>
+      <c r="AO93" s="44"/>
+      <c r="AP93" s="44"/>
+      <c r="AQ93" s="44"/>
+      <c r="AR93" s="44"/>
+      <c r="AS93" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT93" s="46">
+        <f>AT89*(1-AT92)</f>
+        <v>2.9255278302917614E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15235,13 +15463,16 @@
       <c r="AL94" s="10">
         <v>-30311000000</v>
       </c>
-      <c r="AS94" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT94" s="46">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AM94" s="44"/>
+      <c r="AN94" s="44"/>
+      <c r="AO94" s="44"/>
+      <c r="AP94" s="44"/>
+      <c r="AQ94" s="44"/>
+      <c r="AR94" s="44"/>
+      <c r="AS94" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT94" s="74"/>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15358,12 +15589,18 @@
       <c r="AL95" s="1">
         <v>-9023000000</v>
       </c>
-      <c r="AS95" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT95" s="47" cm="1">
-        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.90949999999999998</v>
+      <c r="AM95" s="44"/>
+      <c r="AN95" s="44"/>
+      <c r="AO95" s="44"/>
+      <c r="AP95" s="44"/>
+      <c r="AQ95" s="44"/>
+      <c r="AR95" s="44"/>
+      <c r="AS95" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15481,11 +15718,18 @@
       <c r="AL96" s="1">
         <v>1841000000</v>
       </c>
-      <c r="AS96" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT96" s="46">
-        <v>8.4000000000000005E-2</v>
+      <c r="AM96" s="44"/>
+      <c r="AN96" s="44"/>
+      <c r="AO96" s="44"/>
+      <c r="AP96" s="44"/>
+      <c r="AQ96" s="44"/>
+      <c r="AR96" s="44"/>
+      <c r="AS96" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT96" s="48" cm="1">
+        <f t="array" ref="AT96">_FV(A1,"Beta")</f>
+        <v>0.89859999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15603,15 +15847,20 @@
       <c r="AL97" s="1">
         <v>-32696000000</v>
       </c>
-      <c r="AS97" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT97" s="45">
-        <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>7.9938360000000014E-2</v>
+      <c r="AM97" s="44"/>
+      <c r="AN97" s="44"/>
+      <c r="AO97" s="44"/>
+      <c r="AP97" s="44"/>
+      <c r="AQ97" s="44"/>
+      <c r="AR97" s="44"/>
+      <c r="AS97" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT97" s="47">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15726,12 +15975,21 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT98" s="66"/>
+      <c r="AM98" s="44"/>
+      <c r="AN98" s="44"/>
+      <c r="AO98" s="44"/>
+      <c r="AP98" s="44"/>
+      <c r="AQ98" s="44"/>
+      <c r="AR98" s="44"/>
+      <c r="AS98" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT98" s="46">
+        <f>(AT95)+((AT96)*(AT97-AT95))</f>
+        <v>8.045302800000001E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15846,13 +16104,16 @@
       <c r="AL99" s="1">
         <v>-863000000</v>
       </c>
-      <c r="AS99" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT99" s="43">
-        <f>AT86+AT87</f>
-        <v>61270000000</v>
-      </c>
+      <c r="AM99" s="44"/>
+      <c r="AN99" s="44"/>
+      <c r="AO99" s="44"/>
+      <c r="AP99" s="44"/>
+      <c r="AQ99" s="44"/>
+      <c r="AR99" s="44"/>
+      <c r="AS99" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT99" s="74"/>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15969,12 +16230,18 @@
       <c r="AL100" s="10">
         <v>-58876000000</v>
       </c>
-      <c r="AS100" s="44" t="s">
-        <v>105</v>
+      <c r="AM100" s="44"/>
+      <c r="AN100" s="44"/>
+      <c r="AO100" s="44"/>
+      <c r="AP100" s="44"/>
+      <c r="AQ100" s="44"/>
+      <c r="AR100" s="44"/>
+      <c r="AS100" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="AT100" s="45">
-        <f>AT99/AT103</f>
-        <v>2.2939166730247481E-2</v>
+        <f>AT87+AT88</f>
+        <v>61270000000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16092,12 +16359,18 @@
       <c r="AL101" s="1">
         <v>-141000000</v>
       </c>
-      <c r="AS101" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT101" s="36" cm="1">
-        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2609707578240</v>
+      <c r="AM101" s="44"/>
+      <c r="AN101" s="44"/>
+      <c r="AO101" s="44"/>
+      <c r="AP101" s="44"/>
+      <c r="AQ101" s="44"/>
+      <c r="AR101" s="44"/>
+      <c r="AS101" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT101" s="46">
+        <f>AT100/AT104</f>
+        <v>2.4285550107173728E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16215,12 +16488,18 @@
       <c r="AL102" s="10">
         <v>-293000000</v>
       </c>
-      <c r="AS102" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT102" s="45">
-        <f>AT101/AT103</f>
-        <v>0.97706083326975257</v>
+      <c r="AM102" s="44"/>
+      <c r="AN102" s="44"/>
+      <c r="AO102" s="44"/>
+      <c r="AP102" s="44"/>
+      <c r="AQ102" s="44"/>
+      <c r="AR102" s="44"/>
+      <c r="AS102" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT102" s="49" cm="1">
+        <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
+        <v>2461629408480</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16338,15 +16617,21 @@
       <c r="AL103" s="1">
         <v>14224000000</v>
       </c>
-      <c r="AS103" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT103" s="48">
-        <f>AT99+AT101</f>
-        <v>2670977578240</v>
+      <c r="AM103" s="44"/>
+      <c r="AN103" s="44"/>
+      <c r="AO103" s="44"/>
+      <c r="AP103" s="44"/>
+      <c r="AQ103" s="44"/>
+      <c r="AR103" s="44"/>
+      <c r="AS103" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT103" s="46">
+        <f>AT102/AT104</f>
+        <v>0.9757144498928263</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16461,17 +16746,28 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT104" s="66"/>
+      <c r="AM104" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN104" s="76"/>
+      <c r="AO104" s="76"/>
+      <c r="AP104" s="76"/>
+      <c r="AQ104" s="76"/>
+      <c r="AR104" s="44"/>
+      <c r="AS104" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT104" s="50">
+        <f>AT100+AT102</f>
+        <v>2522899408480</v>
+      </c>
     </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AJ105" si="63">(B22*(1-$AT$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AL105" si="63">(B22*(1-$AT$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16611,221 +16907,224 @@
         <v>45517283315.017441</v>
       </c>
       <c r="AK105" s="1">
-        <f>(AK22*(1-$AT$91))+AK77+AK88+AK81</f>
+        <f t="shared" si="63"/>
         <v>50875646901.42865</v>
       </c>
       <c r="AL105" s="1">
-        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <f t="shared" si="63"/>
         <v>63468667566.53447</v>
       </c>
-      <c r="AM105" s="21">
-        <f>AL105*(1+$AT$106)</f>
-        <v>70059044265.673065</v>
-      </c>
-      <c r="AN105" s="21">
-        <f t="shared" ref="AN105:AQ105" si="64">AM105*(1+$AT$106)</f>
-        <v>77333743902.440979</v>
-      </c>
-      <c r="AO105" s="21">
-        <f t="shared" si="64"/>
-        <v>85363824309.24205</v>
-      </c>
-      <c r="AP105" s="21">
-        <f t="shared" si="64"/>
-        <v>94227721728.976532</v>
-      </c>
-      <c r="AQ105" s="21">
-        <f t="shared" si="64"/>
-        <v>104012016964.80403</v>
-      </c>
-      <c r="AR105" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS105" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT105" s="50">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.8775732338547899E-2</v>
-      </c>
+      <c r="AM105" s="69">
+        <f>AM107/AM3</f>
+        <v>0.27759792354884377</v>
+      </c>
+      <c r="AN105" s="69">
+        <f>AN107/AN3</f>
+        <v>0.28446618460229689</v>
+      </c>
+      <c r="AO105" s="69">
+        <f>AO107/AO3</f>
+        <v>0.3069629349470499</v>
+      </c>
+      <c r="AP105" s="69">
+        <f>AP107/AP3</f>
+        <v>0.30862046632124351</v>
+      </c>
+      <c r="AQ105" s="69">
+        <f>AQ107/AQ3</f>
+        <v>0.40407784986098239</v>
+      </c>
+      <c r="AR105" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS105" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT105" s="74"/>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AL106" si="65">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AL106" si="64">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-9.6919609316303501E-2</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1.4417637271214643</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1.0115843270868825</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.41937669376693765</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.56921241050119331</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.1368821292775666</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1.1571906354515051</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.29922480620155034</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.48544152744630065</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.51783419023136257</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.38477823647718856</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-5.8324415227029469E-2</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.11526909651757444</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>8.49406798165806E-2</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-9.3183952770696354E-2</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.16838055781608352</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-0.18786804280377378</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.21097770154373929</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.18658253927375745</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-0.13629951166576237</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.38811408468400543</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.11508870383779879</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.19002394577702009</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-0.1618294055455135</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>8.8297526041666741E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-0.13497345397442606</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>7.9789073305670755E-2</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.25602433752301668</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.7853910383070835E-2</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.18628302120798712</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.18227914270778878</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.24061546624220709</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.16092875726148481</v>
       </c>
-      <c r="AM106" s="56">
-        <v>64355000000</v>
-      </c>
-      <c r="AN106" s="56">
-        <v>75993000000</v>
-      </c>
-      <c r="AO106" s="56">
-        <v>87989000000</v>
-      </c>
-      <c r="AP106" s="56">
-        <v>116100000000</v>
-      </c>
-      <c r="AQ106" s="56">
-        <v>137400000000</v>
-      </c>
-      <c r="AR106" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS106" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT106" s="52">
-        <f>(SUM(AM4:AQ4)/5)</f>
-        <v>0.1038366953620049</v>
+      <c r="AM106" s="52">
+        <f>(AM107/AL105)-1</f>
+        <v>-7.3196235948460697E-2</v>
+      </c>
+      <c r="AN106" s="52">
+        <f>(AN107/AM107)-1</f>
+        <v>0.13693623242609188</v>
+      </c>
+      <c r="AO106" s="52">
+        <f>(AO107/AN107)-1</f>
+        <v>0.21356798947336952</v>
+      </c>
+      <c r="AP106" s="52">
+        <f>(AP107/AO107)-1</f>
+        <v>0.174233930089575</v>
+      </c>
+      <c r="AQ106" s="52">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.37247906654634733</v>
+      </c>
+      <c r="AR106" s="53">
+        <f>SUM(AM106:AQ106)/5</f>
+        <v>0.16480419651738459</v>
+      </c>
+      <c r="AS106" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT106" s="54">
+        <f>(AT101*AT93)+(AT103*AT98)</f>
+        <v>7.9209662484356971E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16939,151 +17238,239 @@
       <c r="AL107" s="1">
         <v>65149000000</v>
       </c>
-      <c r="AM107" s="22"/>
-      <c r="AN107" s="22"/>
-      <c r="AO107" s="22"/>
-      <c r="AP107" s="22"/>
-      <c r="AQ107" s="61">
-        <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>2618932255787.1641</v>
-      </c>
-      <c r="AR107" s="23" t="s">
+      <c r="AM107" s="55">
+        <v>58823000000</v>
+      </c>
+      <c r="AN107" s="55">
+        <v>66878000000</v>
+      </c>
+      <c r="AO107" s="55">
+        <v>81161000000</v>
+      </c>
+      <c r="AP107" s="55">
+        <v>95302000000</v>
+      </c>
+      <c r="AQ107" s="55">
+        <v>130800000000</v>
+      </c>
+      <c r="AR107" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS107" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT107" s="35">
+        <f>(SUM(AM4:AQ4)/5)</f>
+        <v>0.1038073487208068</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM108" s="71"/>
+      <c r="AN108" s="71"/>
+      <c r="AO108" s="71"/>
+      <c r="AP108" s="71"/>
+      <c r="AQ108" s="57">
+        <f>AQ107*(1+AT108)/(AT109-AT108)</f>
+        <v>2473175331772.0425</v>
+      </c>
+      <c r="AR108" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AS107" s="53" t="s">
+      <c r="AS108" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AT107" s="54">
+      <c r="AT108" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="61">
-        <f t="shared" ref="AM108:AO108" si="66">AM107+AM106</f>
-        <v>64355000000</v>
-      </c>
-      <c r="AN108" s="61">
-        <f t="shared" si="66"/>
-        <v>75993000000</v>
-      </c>
-      <c r="AO108" s="61">
-        <f t="shared" si="66"/>
-        <v>87989000000</v>
-      </c>
-      <c r="AP108" s="61">
-        <f>AP107+AP106</f>
-        <v>116100000000</v>
-      </c>
-      <c r="AQ108" s="61">
-        <f>AQ107+AQ106</f>
-        <v>2756332255787.1641</v>
-      </c>
-      <c r="AR108" s="23" t="s">
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM109" s="57">
+        <f t="shared" ref="AM109:AO109" si="65">AM108+AM107</f>
+        <v>58823000000</v>
+      </c>
+      <c r="AN109" s="57">
+        <f t="shared" si="65"/>
+        <v>66878000000</v>
+      </c>
+      <c r="AO109" s="57">
+        <f t="shared" si="65"/>
+        <v>81161000000</v>
+      </c>
+      <c r="AP109" s="57">
+        <f>AP108+AP107</f>
+        <v>95302000000</v>
+      </c>
+      <c r="AQ109" s="57">
+        <f>AQ108+AQ107</f>
+        <v>2603975331772.0425</v>
+      </c>
+      <c r="AR109" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="AS108" s="55" t="s">
+      <c r="AS109" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="52">
-        <f>AT105</f>
-        <v>7.8775732338547899E-2</v>
+      <c r="AT109" s="35">
+        <f>AT106</f>
+        <v>7.9209662484356971E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="63" t="s">
+    <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
+      <c r="AM110" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="AN109" s="63"/>
+      <c r="AN110" s="75"/>
+      <c r="AO110" s="44"/>
+      <c r="AP110" s="44"/>
+      <c r="AQ110" s="44"/>
+      <c r="AR110" s="44"/>
+      <c r="AS110" s="44"/>
+      <c r="AT110" s="44"/>
     </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="35" t="s">
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM111" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AN110" s="36">
-        <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>2167349063089.0413</v>
-      </c>
+      <c r="AN111" s="49">
+        <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
+        <v>2025472475720.9197</v>
+      </c>
+      <c r="AO111" s="44"/>
+      <c r="AP111" s="44"/>
+      <c r="AQ111" s="44"/>
+      <c r="AR111" s="44"/>
+      <c r="AS111" s="44"/>
+      <c r="AT111" s="44"/>
     </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="35" t="s">
+    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM112" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AN111" s="36">
+      <c r="AN112" s="49">
         <f>AL40</f>
         <v>104749000000</v>
       </c>
+      <c r="AO112" s="44"/>
+      <c r="AP112" s="44"/>
+      <c r="AQ112" s="44"/>
+      <c r="AR112" s="44"/>
+      <c r="AS112" s="44"/>
+      <c r="AT112" s="44"/>
     </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="35" t="s">
+    <row r="113" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM113" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="AN112" s="36">
-        <f>AT99</f>
+      <c r="AN113" s="49">
+        <f>AT100</f>
         <v>61270000000</v>
       </c>
+      <c r="AO113" s="44"/>
+      <c r="AP113" s="44"/>
+      <c r="AQ113" s="44"/>
+      <c r="AR113" s="44"/>
+      <c r="AS113" s="44"/>
+      <c r="AT113" s="44"/>
     </row>
-    <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="35" t="s">
+    <row r="114" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM114" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AN113" s="36">
-        <f>AN110+AN111-AN112</f>
-        <v>2210828063089.041</v>
-      </c>
+      <c r="AN114" s="49">
+        <f>AN111+AN112-AN113</f>
+        <v>2068951475720.9197</v>
+      </c>
+      <c r="AO114" s="44"/>
+      <c r="AP114" s="44"/>
+      <c r="AQ114" s="44"/>
+      <c r="AR114" s="44"/>
+      <c r="AS114" s="44"/>
+      <c r="AT114" s="44"/>
     </row>
-    <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="35" t="s">
+    <row r="115" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM115" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AN114" s="35">
+      <c r="AN115" s="61">
         <f>AL34*(1+(5*AR16))</f>
         <v>7254679754.7058077</v>
       </c>
+      <c r="AO115" s="44"/>
+      <c r="AP115" s="44"/>
+      <c r="AQ115" s="44"/>
+      <c r="AR115" s="44"/>
+      <c r="AS115" s="44"/>
+      <c r="AT115" s="44"/>
     </row>
-    <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="37" t="s">
+    <row r="116" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM116" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AN115" s="38">
-        <f>AN113/AN114</f>
-        <v>304.74509390369286</v>
-      </c>
+      <c r="AN116" s="63">
+        <f>AN114/AN115</f>
+        <v>285.18853287478021</v>
+      </c>
+      <c r="AO116" s="44"/>
+      <c r="AP116" s="44"/>
+      <c r="AQ116" s="44"/>
+      <c r="AR116" s="44"/>
+      <c r="AS116" s="44"/>
+      <c r="AT116" s="44"/>
     </row>
-    <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="35" t="s">
+    <row r="117" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM117" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="AN116" s="39" cm="1">
-        <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
-        <v>350.98</v>
-      </c>
+      <c r="AN117" s="64" cm="1">
+        <f t="array" ref="AN117">_FV(A1,"Price",TRUE)</f>
+        <v>331.32</v>
+      </c>
+      <c r="AO117" s="44"/>
+      <c r="AP117" s="44"/>
+      <c r="AQ117" s="44"/>
+      <c r="AR117" s="44"/>
+      <c r="AS117" s="44"/>
+      <c r="AT117" s="44"/>
     </row>
-    <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="37" t="s">
+    <row r="118" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM118" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AN117" s="40">
-        <f>(AN115/AN116)-1</f>
-        <v>-0.13173088522510445</v>
-      </c>
+      <c r="AN118" s="65">
+        <f>(AN116/AN117)-1</f>
+        <v>-0.1392353830895201</v>
+      </c>
+      <c r="AO118" s="44"/>
+      <c r="AP118" s="44"/>
+      <c r="AQ118" s="44"/>
+      <c r="AR118" s="44"/>
+      <c r="AS118" s="44"/>
+      <c r="AT118" s="44"/>
     </row>
-    <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="37" t="s">
+    <row r="119" spans="39:46" ht="20" x14ac:dyDescent="0.2">
+      <c r="AM119" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="AN118" s="41" t="str">
-        <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
+      <c r="AN119" s="66" t="str">
+        <f>IF(AN116&gt;AN117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AO119" s="44"/>
+      <c r="AP119" s="44"/>
+      <c r="AQ119" s="44"/>
+      <c r="AR119" s="44"/>
+      <c r="AS119" s="44"/>
+      <c r="AT119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AM109:AN109"/>
-    <mergeCell ref="AS83:AT83"/>
+  <mergeCells count="7">
     <mergeCell ref="AS84:AT84"/>
-    <mergeCell ref="AS93:AT93"/>
-    <mergeCell ref="AS98:AT98"/>
-    <mergeCell ref="AS104:AT104"/>
+    <mergeCell ref="AS85:AT85"/>
+    <mergeCell ref="AM110:AN110"/>
+    <mergeCell ref="AM104:AQ104"/>
+    <mergeCell ref="AS105:AT105"/>
+    <mergeCell ref="AS99:AT99"/>
+    <mergeCell ref="AS94:AT94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MSFT" display="ROIC.AI | MSFT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17162,7 +17549,7 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/789019/000156459022026876/0001564590-22-026876-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/789019/000156459022026876/0001564590-22-026876-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:MSFT/explorer/revenue_proj" xr:uid="{C9F4B2A4-E0C2-2343-9571-21EA1486E941}"/>
-    <hyperlink ref="AR106" r:id="rId77" xr:uid="{81B04FC1-53AD-C643-A076-210FE77F9CF7}"/>
+    <hyperlink ref="AR107" r:id="rId77" xr:uid="{81B04FC1-53AD-C643-A076-210FE77F9CF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId78"/>

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E76CEC2-C9CC-1E43-8730-CAA15D38228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266268C-31F3-054A-BB28-59DCA4CE243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2919,7 +2919,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3087,11 +3087,11 @@
     <v>Powered by Refinitiv</v>
     <v>366.78</v>
     <v>213.43100000000001</v>
-    <v>0.89859999999999995</v>
-    <v>1.21</v>
-    <v>3.6649999999999999E-3</v>
-    <v>-1</v>
-    <v>-3.0180000000000003E-3</v>
+    <v>0.89639999999999997</v>
+    <v>-4.6500000000000004</v>
+    <v>-1.4034999999999999E-2</v>
+    <v>0.38</v>
+    <v>1.163E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -3099,26 +3099,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>336.88</v>
+    <v>331.92</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999989860939</v>
+    <v>45219.999919733593</v>
     <v>4</v>
-    <v>330.91</v>
-    <v>2461629408480</v>
+    <v>325.45</v>
+    <v>2427081005880</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>332.15</v>
-    <v>34.085799999999999</v>
-    <v>330.11</v>
+    <v>331.72</v>
+    <v>34.210700000000003</v>
     <v>331.32</v>
-    <v>330.32</v>
+    <v>326.67</v>
+    <v>327.05</v>
     <v>7429764000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>25052071</v>
-    <v>21865527</v>
+    <v>25027715</v>
+    <v>22056928</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -3742,10 +3742,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS44" sqref="AS44"/>
+      <selection pane="bottomRight" activeCell="AL111" sqref="AL111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5915,15 +5915,15 @@
       </c>
       <c r="AS16" s="27">
         <f>AT102/AL3</f>
-        <v>12.41554147616886</v>
+        <v>12.241292206990467</v>
       </c>
       <c r="AT16" s="27">
         <f>AT102/AL28</f>
-        <v>33.842412610739913</v>
+        <v>33.367442133135363</v>
       </c>
       <c r="AU16" s="28">
         <f>AT102/AL107</f>
-        <v>37.784607721991129</v>
+        <v>37.254309442662205</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6306,15 +6306,15 @@
       </c>
       <c r="AS19" s="27">
         <f>AT102/AM3</f>
-        <v>11.616939162246343</v>
+        <v>11.453898092873997</v>
       </c>
       <c r="AT19" s="27">
         <f>AT102/AM28</f>
-        <v>34.018731201614131</v>
+        <v>33.541286133138016</v>
       </c>
       <c r="AU19" s="28">
         <f>AT102/AM107</f>
-        <v>41.848076576849195</v>
+        <v>41.26074844669602</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,11 +6755,11 @@
       </c>
       <c r="AT22" s="41">
         <f>AL98/AT102*-1</f>
-        <v>7.3670715573705909E-3</v>
+        <v>7.4719384956929754E-3</v>
       </c>
       <c r="AU22" s="37">
         <f>AM107/AT102</f>
-        <v>2.3895960861274348E-2</v>
+        <v>2.4236109078144354E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15600,7 +15600,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="AT96" s="48" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.89859999999999995</v>
+        <v>0.89639999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>8.045302800000001E-2</v>
+        <v>8.0465168000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>2.4285550107173728E-2</v>
+        <v>2.4622732024227423E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="AT102" s="49" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>2461629408480</v>
+        <v>2427081005880</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.9757144498928263</v>
+        <v>0.97537726797577262</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="AT104" s="50">
         <f>AT100+AT102</f>
-        <v>2522899408480</v>
+        <v>2488351005880</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="AT106" s="54">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.9209662484356971E-2</v>
+        <v>7.92042406089985E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -17271,7 +17271,7 @@
       <c r="AP108" s="71"/>
       <c r="AQ108" s="57">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>2473175331772.0425</v>
+        <v>2473422715523.5322</v>
       </c>
       <c r="AR108" s="58" t="s">
         <v>141</v>
@@ -17302,7 +17302,7 @@
       </c>
       <c r="AQ109" s="57">
         <f>AQ108+AQ107</f>
-        <v>2603975331772.0425</v>
+        <v>2604222715523.5322</v>
       </c>
       <c r="AR109" s="58" t="s">
         <v>137</v>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="AT109" s="35">
         <f>AT106</f>
-        <v>7.9209662484356971E-2</v>
+        <v>7.92042406089985E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="AN111" s="49">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>2025472475720.9197</v>
+        <v>2025689379953.1824</v>
       </c>
       <c r="AO111" s="44"/>
       <c r="AP111" s="44"/>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="AN114" s="49">
         <f>AN111+AN112-AN113</f>
-        <v>2068951475720.9197</v>
+        <v>2069168379953.1824</v>
       </c>
       <c r="AO114" s="44"/>
       <c r="AP114" s="44"/>
@@ -17408,7 +17408,7 @@
       </c>
       <c r="AN116" s="63">
         <f>AN114/AN115</f>
-        <v>285.18853287478021</v>
+        <v>285.21843140091738</v>
       </c>
       <c r="AO116" s="44"/>
       <c r="AP116" s="44"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="AN117" s="64" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price",TRUE)</f>
-        <v>331.32</v>
+        <v>326.67</v>
       </c>
       <c r="AO117" s="44"/>
       <c r="AP117" s="44"/>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="AN118" s="65">
         <f>(AN116/AN117)-1</f>
-        <v>-0.1392353830895201</v>
+        <v>-0.12689126212717006</v>
       </c>
       <c r="AO118" s="44"/>
       <c r="AP118" s="44"/>

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266268C-31F3-054A-BB28-59DCA4CE243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A2797-1046-3547-88B5-5C701818D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2894,13 +2894,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2916,14 +2918,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2933,6 +2935,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3087,11 +3091,11 @@
     <v>Powered by Refinitiv</v>
     <v>366.78</v>
     <v>213.43100000000001</v>
-    <v>0.89639999999999997</v>
-    <v>-4.6500000000000004</v>
-    <v>-1.4034999999999999E-2</v>
-    <v>0.38</v>
-    <v>1.163E-3</v>
+    <v>0.88009999999999999</v>
+    <v>1.92</v>
+    <v>5.8560000000000001E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -3099,26 +3103,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>331.92</v>
+    <v>336.72</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.999919733593</v>
+    <v>45226.99999429375</v>
     <v>4</v>
-    <v>325.45</v>
-    <v>2427081005880</v>
+    <v>328.40069999999997</v>
+    <v>2451235000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>331.72</v>
-    <v>34.210700000000003</v>
-    <v>331.32</v>
-    <v>326.67</v>
-    <v>327.05</v>
-    <v>7429764000</v>
+    <v>330.42500000000001</v>
+    <v>31.938300000000002</v>
+    <v>327.89</v>
+    <v>329.81</v>
+    <v>329.81</v>
+    <v>7432262000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>25027715</v>
-    <v>22056928</v>
+    <v>29856522</v>
+    <v>23873449</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -3303,9 +3307,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3742,10 +3746,10 @@
   <dimension ref="A1:AU119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL111" sqref="AL111"/>
+      <selection pane="bottomRight" activeCell="AL113" sqref="AL113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5915,15 +5919,15 @@
       </c>
       <c r="AS16" s="27">
         <f>AT102/AL3</f>
-        <v>12.241292206990467</v>
+        <v>12.363115952993393</v>
       </c>
       <c r="AT16" s="27">
         <f>AT102/AL28</f>
-        <v>33.367442133135363</v>
+        <v>33.699510572190604</v>
       </c>
       <c r="AU16" s="28">
         <f>AT102/AL107</f>
-        <v>37.254309442662205</v>
+        <v>37.625059479040353</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -6306,15 +6310,15 @@
       </c>
       <c r="AS19" s="27">
         <f>AT102/AM3</f>
-        <v>11.453898092873997</v>
+        <v>11.567885795186408</v>
       </c>
       <c r="AT19" s="27">
         <f>AT102/AM28</f>
-        <v>33.541286133138016</v>
+        <v>33.8750846450436</v>
       </c>
       <c r="AU19" s="28">
         <f>AT102/AM107</f>
-        <v>41.26074844669602</v>
+        <v>41.671370042330381</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,11 +6759,11 @@
       </c>
       <c r="AT22" s="41">
         <f>AL98/AT102*-1</f>
-        <v>7.4719384956929754E-3</v>
+        <v>7.3983114634051817E-3</v>
       </c>
       <c r="AU22" s="37">
         <f>AM107/AT102</f>
-        <v>2.4236109078144354E-2</v>
+        <v>2.3997291161394155E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8145,7 +8149,7 @@
       </c>
       <c r="AM33" s="1" cm="1">
         <f t="array" ref="AM33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>7429764000</v>
+        <v>7432262000</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8265,7 +8269,7 @@
       </c>
       <c r="AM34" s="1" cm="1">
         <f t="array" ref="AM34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>7429764000</v>
+        <v>7432262000</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,7 +8423,7 @@
       </c>
       <c r="AM35" s="19">
         <f t="shared" si="60"/>
-        <v>-1.4620159151193635E-2</v>
+        <v>-1.4288859416445624E-2</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -15600,7 +15604,7 @@
       </c>
       <c r="AT95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15729,7 +15733,7 @@
       </c>
       <c r="AT96" s="48" cm="1">
         <f t="array" ref="AT96">_FV(A1,"Beta")</f>
-        <v>0.89639999999999997</v>
+        <v>0.88009999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15986,7 +15990,7 @@
       </c>
       <c r="AT98" s="46">
         <f>(AT95)+((AT96)*(AT97-AT95))</f>
-        <v>8.0465168000000004E-2</v>
+        <v>7.9737555000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16370,7 +16374,7 @@
       </c>
       <c r="AT101" s="46">
         <f>AT100/AT104</f>
-        <v>2.4622732024227423E-2</v>
+        <v>2.4386021122346026E-2</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16499,7 +16503,7 @@
       </c>
       <c r="AT102" s="49" cm="1">
         <f t="array" ref="AT102">_FV(A1,"Market cap",TRUE)</f>
-        <v>2427081005880</v>
+        <v>2451235000000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16628,7 +16632,7 @@
       </c>
       <c r="AT103" s="46">
         <f>AT102/AT104</f>
-        <v>0.97537726797577262</v>
+        <v>0.975613978877654</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16759,7 +16763,7 @@
       </c>
       <c r="AT104" s="50">
         <f>AT100+AT102</f>
-        <v>2488351005880</v>
+        <v>2512505000000</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17120,7 +17124,7 @@
       </c>
       <c r="AT106" s="54">
         <f>(AT101*AT93)+(AT103*AT98)</f>
-        <v>7.92042406089985E-2</v>
+        <v>7.8506493134160832E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -17271,7 +17275,7 @@
       <c r="AP108" s="71"/>
       <c r="AQ108" s="57">
         <f>AQ107*(1+AT108)/(AT109-AT108)</f>
-        <v>2473422715523.5322</v>
+        <v>2505677201902.1362</v>
       </c>
       <c r="AR108" s="58" t="s">
         <v>141</v>
@@ -17302,7 +17306,7 @@
       </c>
       <c r="AQ109" s="57">
         <f>AQ108+AQ107</f>
-        <v>2604222715523.5322</v>
+        <v>2636477201902.1362</v>
       </c>
       <c r="AR109" s="58" t="s">
         <v>137</v>
@@ -17312,7 +17316,7 @@
       </c>
       <c r="AT109" s="35">
         <f>AT106</f>
-        <v>7.92042406089985E-2</v>
+        <v>7.8506493134160832E-2</v>
       </c>
     </row>
     <row r="110" spans="1:46" ht="19" x14ac:dyDescent="0.2">
@@ -17333,7 +17337,7 @@
       </c>
       <c r="AN111" s="49">
         <f>NPV(AT109,AM109,AN109,AO109,AP109,AQ109)</f>
-        <v>2025689379953.1824</v>
+        <v>2053972557786.6128</v>
       </c>
       <c r="AO111" s="44"/>
       <c r="AP111" s="44"/>
@@ -17378,7 +17382,7 @@
       </c>
       <c r="AN114" s="49">
         <f>AN111+AN112-AN113</f>
-        <v>2069168379953.1824</v>
+        <v>2097451557786.6128</v>
       </c>
       <c r="AO114" s="44"/>
       <c r="AP114" s="44"/>
@@ -17408,7 +17412,7 @@
       </c>
       <c r="AN116" s="63">
         <f>AN114/AN115</f>
-        <v>285.21843140091738</v>
+        <v>289.11704288891366</v>
       </c>
       <c r="AO116" s="44"/>
       <c r="AP116" s="44"/>
@@ -17423,7 +17427,7 @@
       </c>
       <c r="AN117" s="64" cm="1">
         <f t="array" ref="AN117">_FV(A1,"Price",TRUE)</f>
-        <v>326.67</v>
+        <v>329.81</v>
       </c>
       <c r="AO117" s="44"/>
       <c r="AP117" s="44"/>
@@ -17438,7 +17442,7 @@
       </c>
       <c r="AN118" s="65">
         <f>(AN116/AN117)-1</f>
-        <v>-0.12689126212717006</v>
+        <v>-0.12338302995993555</v>
       </c>
       <c r="AO118" s="44"/>
       <c r="AP118" s="44"/>

--- a/Technology/Software/Microsoft.xlsx
+++ b/Technology/Software/Microsoft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1D03A-8531-C04D-B788-9C0E2A8364B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35045ED1-CA0E-4444-8290-47B93C20272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1742,8 +1742,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Charles Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1763,7 +1765,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1776,6 +1778,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1930,11 +1934,11 @@
     <v>Powered by Refinitiv</v>
     <v>384.3</v>
     <v>219.35</v>
-    <v>0.88859999999999995</v>
-    <v>-4.4000000000000004</v>
-    <v>-1.1612000000000001E-2</v>
-    <v>-0.11</v>
-    <v>-2.9369999999999998E-4</v>
+    <v>0.88929999999999998</v>
+    <v>3.28</v>
+    <v>8.8419999999999992E-3</v>
+    <v>-0.24</v>
+    <v>-6.4130000000000003E-4</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -1942,26 +1946,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>378.16</v>
+    <v>374.46</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041406053126</v>
+    <v>45269.041609814063</v>
     <v>4</v>
-    <v>371.31</v>
-    <v>2783457000000</v>
+    <v>368.23</v>
+    <v>2781375408260</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>376.76</v>
-    <v>36.693100000000001</v>
-    <v>378.91</v>
-    <v>374.51</v>
-    <v>374.4</v>
+    <v>369.2</v>
+    <v>35.922199999999997</v>
+    <v>370.95</v>
+    <v>374.23</v>
+    <v>373.99</v>
     <v>7432262000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>33040472</v>
-    <v>26997752</v>
+    <v>20154366</v>
+    <v>26739052</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2609,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M188" sqref="M188:P188"/>
     </sheetView>
   </sheetViews>
@@ -15283,7 +15287,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15336,7 +15340,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>2783457000000</v>
+        <v>2781375408260</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>203</v>
@@ -15356,22 +15360,22 @@
         <v>205</v>
       </c>
       <c r="G3" s="36">
-        <f>AVERAGE(Financials!P129:U129)</f>
-        <v>-7.3639108122086627E-4</v>
+        <f>AVERAGE(Financials!L129:P129)</f>
+        <v>-6.4639118500275927E-3</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>206</v>
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>2205254497587.229</v>
+        <v>2190151037499.2693</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>207</v>
       </c>
       <c r="K3" s="39">
         <f>Financials!Q172*-1/Model!A3</f>
-        <v>7.2679405501863328E-3</v>
+        <v>7.2733799040294528E-3</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>208</v>
@@ -15409,21 +15413,21 @@
       </c>
       <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>7404896742.7495165</v>
+        <v>7192054567.9284515</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>213</v>
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>1787033304322.2771</v>
+        <v>1773827405606.2073</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>214</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.1612000000000001E-2</v>
+        <v>8.8419999999999992E-3</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>215</v>
@@ -15468,14 +15472,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>1845989304322.2771</v>
+        <v>1832783405606.2073</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>221</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>374.51</v>
+        <v>374.23</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>222</v>
@@ -15495,7 +15499,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>11.46399093904448</v>
+        <v>11.45541766169687</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>224</v>
@@ -15523,14 +15527,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>9.4301525137896205E-2</v>
+        <v>9.477943410446231E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>249.29305140274539</v>
+        <v>254.83446882885778</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>228</v>
@@ -15550,14 +15554,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>33.596342788171391</v>
+        <v>33.571217963307184</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>230</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>2.4178566437347514E-2</v>
+        <v>2.4196661766741581E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>231</v>
@@ -15584,7 +15588,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.33434874528652003</v>
+        <v>-0.31904318512984586</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>234</v>
@@ -15911,7 +15915,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -16063,7 +16067,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -16146,7 +16150,7 @@
       </c>
       <c r="O20" s="102">
         <f>A3</f>
-        <v>2783457000000</v>
+        <v>2781375408260</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -16176,7 +16180,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>2868446000000</v>
+        <v>2866364408260</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -16204,7 +16208,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>2.9628934970363743E-2</v>
+        <v>2.9650451894772091E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -16229,7 +16233,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.97037106502963622</v>
+        <v>0.97034954810522789</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -16273,7 +16277,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4301525137896205E-2</v>
+        <v>9.477943410446231E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="41"/>
